--- a/ai-maturity-assessment/AIMA_0.20250529.xlsx
+++ b/ai-maturity-assessment/AIMA_0.20250529.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26723" windowHeight="14184" activeTab="1"/>
+    <workbookView windowWidth="26723" windowHeight="14184"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="3" r:id="rId1"/>
@@ -162,7 +162,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="341">
   <si>
     <t>AIMA (AI Maturity Assessment) v0.20250529</t>
   </si>
@@ -4889,6 +4889,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="134"/>
+      </rPr>
       <t>■非公式なアプローチ</t>
     </r>
     <r>
@@ -4946,6 +4953,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="134"/>
+      </rPr>
       <t>■文書化されたポリシー</t>
     </r>
     <r>
@@ -5003,6 +5017,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="134"/>
+      </rPr>
       <t>■完全に統合された慣行</t>
     </r>
     <r>
@@ -5060,6 +5081,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="134"/>
+      </rPr>
       <t>■正式な監視の欠如</t>
     </r>
     <r>
@@ -5114,6 +5142,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="134"/>
+      </rPr>
       <t>■日常的な監視</t>
     </r>
     <r>
@@ -5168,6 +5203,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Meiryo UI"/>
+        <charset val="134"/>
+      </rPr>
       <t>■高度な分析</t>
     </r>
     <r>
@@ -6927,41 +6969,6 @@
   </si>
   <si>
     <t>中項目</t>
-  </si>
-  <si>
-    <t>人</t>
-  </si>
-  <si>
-    <t>属人的</t>
-  </si>
-  <si>
-    <t>←ーーー</t>
-  </si>
-  <si>
-    <t>ーーー→</t>
-  </si>
-  <si>
-    <t>組織的</t>
-  </si>
-  <si>
-    <t>プロセス</t>
-  </si>
-  <si>
-    <t>個別的
-アドホック</t>
-  </si>
-  <si>
-    <t>体系的
-定期的</t>
-  </si>
-  <si>
-    <t>技術</t>
-  </si>
-  <si>
-    <t>手動</t>
-  </si>
-  <si>
-    <t>自動</t>
   </si>
 </sst>
 </file>
@@ -6969,11 +6976,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0.0_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -7044,37 +7051,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7088,8 +7066,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7098,22 +7098,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7133,11 +7117,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -7165,9 +7172,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7181,14 +7187,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="42">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7221,18 +7228,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -7251,55 +7246,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7317,7 +7264,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7329,7 +7348,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7341,7 +7360,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7353,13 +7384,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7371,31 +7408,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7407,36 +7426,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -7497,35 +7492,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="double">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7560,6 +7531,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -7584,17 +7564,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -7609,6 +7578,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -7617,16 +7597,16 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7635,138 +7615,138 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7778,10 +7758,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="179" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -7793,7 +7773,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -7808,47 +7788,8 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -7859,16 +7800,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -7881,15 +7822,21 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -8861,7 +8808,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7871460" y="2021840"/>
+        <a:off x="7467600" y="2021840"/>
         <a:ext cx="9429750" cy="6560820"/>
       </xdr:xfrm>
       <a:graphic>
@@ -9168,441 +9115,441 @@
   <sheetPr/>
   <dimension ref="B1:F118"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="2.55555555555556" style="1" customWidth="1"/>
     <col min="2" max="2" width="3.44444444444444" style="1" customWidth="1"/>
-    <col min="3" max="3" width="116.333333333333" style="44" customWidth="1"/>
+    <col min="3" max="3" width="116.333333333333" style="33" customWidth="1"/>
     <col min="4" max="16384" width="8.88888888888889" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="24.6" spans="2:6">
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="30"/>
-      <c r="F1" s="31"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="17"/>
+      <c r="F1" s="18"/>
     </row>
     <row r="3" ht="18.6" spans="2:2">
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="19" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" ht="43.2" spans="3:3">
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="33" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" ht="16.2" spans="2:2">
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="35" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" ht="187.2" spans="3:3">
-      <c r="C9" s="44" t="s">
+      <c r="C9" s="33" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="10" ht="43.2" spans="3:3">
-      <c r="C10" s="44" t="s">
+      <c r="C10" s="33" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="11" ht="43.2" spans="3:3">
-      <c r="C11" s="44" t="s">
+      <c r="C11" s="33" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="12" ht="43.2" spans="3:3">
-      <c r="C12" s="44" t="s">
+      <c r="C12" s="33" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="13" ht="43.2" spans="3:3">
-      <c r="C13" s="44" t="s">
+      <c r="C13" s="33" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="14" ht="43.2" spans="3:3">
-      <c r="C14" s="44" t="s">
+      <c r="C14" s="33" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15" ht="43.2" spans="3:3">
-      <c r="C15" s="44" t="s">
+      <c r="C15" s="33" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="16" ht="43.2" spans="3:3">
-      <c r="C16" s="44" t="s">
+      <c r="C16" s="33" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="17" ht="43.2" spans="3:3">
-      <c r="C17" s="44" t="s">
+      <c r="C17" s="33" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="18" ht="43.2" spans="3:3">
-      <c r="C18" s="44" t="s">
+      <c r="C18" s="33" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" spans="3:3">
-      <c r="C19" s="44"/>
+      <c r="C19" s="33"/>
     </row>
     <row r="20" ht="16.2" spans="2:2">
-      <c r="B20" s="47" t="s">
+      <c r="B20" s="36" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="22" ht="115.2" spans="3:3">
-      <c r="C22" s="44" t="s">
+      <c r="C22" s="33" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="23" ht="57.6" spans="3:3">
-      <c r="C23" s="48" t="s">
+      <c r="C23" s="37" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="24" ht="43.2" spans="3:3">
-      <c r="C24" s="48" t="s">
+      <c r="C24" s="37" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="25" ht="43.2" spans="3:3">
-      <c r="C25" s="48" t="s">
+      <c r="C25" s="37" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="26" ht="57.6" spans="3:3">
-      <c r="C26" s="48" t="s">
+      <c r="C26" s="37" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="27" ht="43.2" spans="3:3">
-      <c r="C27" s="44" t="s">
+      <c r="C27" s="33" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="29" spans="2:2">
-      <c r="B29" s="49" t="s">
+      <c r="B29" s="38" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="31" ht="43.2" spans="3:3">
-      <c r="C31" s="44" t="s">
+      <c r="C31" s="33" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="32" ht="28.8" spans="3:3">
-      <c r="C32" s="44" t="s">
+      <c r="C32" s="33" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="33" spans="3:3">
-      <c r="C33" s="44" t="s">
+      <c r="C33" s="33" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="34" spans="3:3">
-      <c r="C34" s="44" t="s">
+      <c r="C34" s="33" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="35" spans="3:3">
-      <c r="C35" s="44" t="s">
+      <c r="C35" s="33" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="37" spans="2:2">
-      <c r="B37" s="49" t="s">
+      <c r="B37" s="38" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="39" ht="201.6" spans="3:3">
-      <c r="C39" s="44" t="s">
+      <c r="C39" s="33" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="41" spans="2:2">
-      <c r="B41" s="49" t="s">
+      <c r="B41" s="38" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="43" ht="72" spans="3:3">
-      <c r="C43" s="44" t="s">
+      <c r="C43" s="33" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="44" spans="3:3">
-      <c r="C44" s="44" t="s">
+      <c r="C44" s="33" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="45" spans="3:3">
-      <c r="C45" s="44" t="s">
+      <c r="C45" s="33" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="46" spans="3:3">
-      <c r="C46" s="44" t="s">
+      <c r="C46" s="33" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="48" spans="2:2">
-      <c r="B48" s="49" t="s">
+      <c r="B48" s="38" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="50" ht="43.2" spans="3:3">
-      <c r="C50" s="44" t="s">
+      <c r="C50" s="33" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="51" spans="3:3">
-      <c r="C51" s="44" t="s">
+      <c r="C51" s="33" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="52" spans="3:3">
-      <c r="C52" s="44" t="s">
+      <c r="C52" s="33" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="53" ht="28.8" spans="3:3">
-      <c r="C53" s="44" t="s">
+      <c r="C53" s="33" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="54" ht="43.2" spans="3:3">
-      <c r="C54" s="44" t="s">
+      <c r="C54" s="33" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="56" ht="16.2" spans="2:2">
-      <c r="B56" s="47" t="s">
+      <c r="B56" s="36" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="58" ht="43.2" spans="3:3">
-      <c r="C58" s="44" t="s">
+      <c r="C58" s="33" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="59" spans="3:3">
-      <c r="C59" s="44" t="s">
+      <c r="C59" s="33" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="60" spans="3:3">
-      <c r="C60" s="44" t="s">
+      <c r="C60" s="33" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="61" ht="28.8" spans="3:3">
-      <c r="C61" s="44" t="s">
+      <c r="C61" s="33" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="62" ht="28.8" spans="3:3">
-      <c r="C62" s="48" t="s">
+      <c r="C62" s="37" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="63" ht="28.8" spans="3:3">
-      <c r="C63" s="44" t="s">
+      <c r="C63" s="33" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="64" spans="3:3">
-      <c r="C64" s="44" t="s">
+      <c r="C64" s="33" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="65" ht="43.2" spans="3:3">
-      <c r="C65" s="44" t="s">
+      <c r="C65" s="33" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="66" ht="43.2" spans="3:3">
-      <c r="C66" s="44" t="s">
+      <c r="C66" s="33" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="68" ht="16.2" spans="2:2">
-      <c r="B68" s="47" t="s">
+      <c r="B68" s="36" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="70" ht="115.2" spans="3:3">
-      <c r="C70" s="44" t="s">
+      <c r="C70" s="33" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="72" spans="2:2">
-      <c r="B72" s="49" t="s">
+      <c r="B72" s="38" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="74" spans="3:3">
-      <c r="C74" s="44" t="s">
+      <c r="C74" s="33" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="75" ht="28.8" spans="3:3">
-      <c r="C75" s="44" t="s">
+      <c r="C75" s="33" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="76" ht="28.8" spans="3:3">
-      <c r="C76" s="44" t="s">
+      <c r="C76" s="33" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="78" spans="2:2">
-      <c r="B78" s="49" t="s">
+      <c r="B78" s="38" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="80" spans="3:3">
-      <c r="C80" s="44" t="s">
+      <c r="C80" s="33" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="81" spans="3:3">
-      <c r="C81" s="44" t="s">
+      <c r="C81" s="33" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="82" spans="3:3">
-      <c r="C82" s="44" t="s">
+      <c r="C82" s="33" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="84" spans="2:2">
-      <c r="B84" s="49" t="s">
+      <c r="B84" s="38" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="86" spans="3:3">
-      <c r="C86" s="48" t="s">
+      <c r="C86" s="37" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="87" spans="3:3">
-      <c r="C87" s="48" t="s">
+      <c r="C87" s="37" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="88" spans="3:3">
-      <c r="C88" s="48" t="s">
+      <c r="C88" s="37" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="90" spans="2:2">
-      <c r="B90" s="49" t="s">
+      <c r="B90" s="38" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="92" ht="28.8" spans="3:3">
-      <c r="C92" s="48" t="s">
+      <c r="C92" s="37" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="93" spans="3:3">
-      <c r="C93" s="48" t="s">
+      <c r="C93" s="37" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="94" spans="3:3">
-      <c r="C94" s="48" t="s">
+      <c r="C94" s="37" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="96" spans="2:2">
-      <c r="B96" s="49" t="s">
+      <c r="B96" s="38" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="98" spans="3:3">
-      <c r="C98" s="48" t="s">
+      <c r="C98" s="37" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="99" spans="3:3">
-      <c r="C99" s="48" t="s">
+      <c r="C99" s="37" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="100" spans="3:3">
-      <c r="C100" s="48" t="s">
+      <c r="C100" s="37" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="102" spans="2:2">
-      <c r="B102" s="49" t="s">
+      <c r="B102" s="38" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="104" spans="3:3">
-      <c r="C104" s="48" t="s">
+      <c r="C104" s="37" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="105" spans="3:3">
-      <c r="C105" s="48" t="s">
+      <c r="C105" s="37" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="106" spans="3:3">
-      <c r="C106" s="48" t="s">
+      <c r="C106" s="37" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="108" spans="2:2">
-      <c r="B108" s="49" t="s">
+      <c r="B108" s="38" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="110" spans="3:3">
-      <c r="C110" s="48" t="s">
+      <c r="C110" s="37" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="111" ht="28.8" spans="3:3">
-      <c r="C111" s="48" t="s">
+      <c r="C111" s="37" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="112" spans="3:3">
-      <c r="C112" s="48" t="s">
+      <c r="C112" s="37" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="114" spans="2:2">
-      <c r="B114" s="49" t="s">
+      <c r="B114" s="38" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="116" spans="3:3">
-      <c r="C116" s="48" t="s">
+      <c r="C116" s="37" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="117" spans="3:3">
-      <c r="C117" s="48" t="s">
+      <c r="C117" s="37" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="118" ht="28.8" spans="3:3">
-      <c r="C118" s="48" t="s">
+      <c r="C118" s="37" t="s">
         <v>83</v>
       </c>
     </row>
@@ -9617,197 +9564,197 @@
   <sheetPr/>
   <dimension ref="B1:F322"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A282" workbookViewId="0">
-      <selection activeCell="D309" sqref="D309"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="5.11111111111111" style="1" customWidth="1"/>
-    <col min="2" max="2" width="44.4444444444444" style="30" customWidth="1"/>
-    <col min="3" max="3" width="8.88888888888889" style="31"/>
-    <col min="4" max="4" width="69.3333333333333" style="30" customWidth="1"/>
+    <col min="2" max="2" width="44.4444444444444" style="17" customWidth="1"/>
+    <col min="3" max="3" width="8.88888888888889" style="18"/>
+    <col min="4" max="4" width="69.3333333333333" style="17" customWidth="1"/>
     <col min="5" max="5" width="14.2222222222222" style="1" customWidth="1"/>
-    <col min="6" max="6" width="80.5555555555556" style="31" customWidth="1"/>
+    <col min="6" max="6" width="80.5555555555556" style="18" customWidth="1"/>
     <col min="7" max="16384" width="8.88888888888889" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.6" spans="2:2">
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="19" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="E4" s="35" t="s">
+      <c r="E4" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="F4" s="36" t="s">
+      <c r="F4" s="23" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="5" ht="30" spans="2:6">
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="C5" s="38">
+      <c r="C5" s="25">
         <v>1</v>
       </c>
-      <c r="D5" s="39" t="s">
+      <c r="D5" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="E5" s="25">
+      <c r="E5" s="27">
         <v>1</v>
       </c>
-      <c r="F5" s="40"/>
+      <c r="F5" s="28"/>
     </row>
     <row r="6" ht="90" spans="2:6">
-      <c r="B6" s="37"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="39" t="s">
+      <c r="B6" s="24"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="E6" s="25"/>
-      <c r="F6" s="40"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="28"/>
     </row>
     <row r="7" ht="30" spans="2:6">
-      <c r="B7" s="37"/>
-      <c r="C7" s="38">
+      <c r="B7" s="24"/>
+      <c r="C7" s="25">
         <v>2</v>
       </c>
-      <c r="D7" s="39" t="s">
+      <c r="D7" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="E7" s="25"/>
-      <c r="F7" s="40"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="28"/>
     </row>
     <row r="8" ht="90" spans="2:6">
-      <c r="B8" s="37"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="39" t="s">
+      <c r="B8" s="24"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="E8" s="25"/>
-      <c r="F8" s="40"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="28"/>
     </row>
     <row r="9" ht="30" spans="2:6">
-      <c r="B9" s="37"/>
-      <c r="C9" s="38">
+      <c r="B9" s="24"/>
+      <c r="C9" s="25">
         <v>3</v>
       </c>
-      <c r="D9" s="39" t="s">
+      <c r="D9" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="E9" s="25"/>
-      <c r="F9" s="40"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="28"/>
     </row>
     <row r="10" ht="105" spans="2:6">
-      <c r="B10" s="37"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="39" t="s">
+      <c r="B10" s="24"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="E10" s="25"/>
-      <c r="F10" s="40"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="28"/>
     </row>
     <row r="11" ht="30" spans="2:6">
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="C11" s="38">
+      <c r="C11" s="25">
         <v>1</v>
       </c>
-      <c r="D11" s="39" t="str">
+      <c r="D11" s="26" t="str">
         <f>D5</f>
         <v>組織の全体的なビジネス目標、倫理基準、リスク プロファイルに沿った AI セキュリティと責任ある AI 戦略を確立しています。</v>
       </c>
-      <c r="E11" s="25">
+      <c r="E11" s="27">
         <v>2</v>
       </c>
-      <c r="F11" s="40"/>
+      <c r="F11" s="28"/>
     </row>
     <row r="12" ht="75" spans="2:6">
-      <c r="B12" s="37"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="39" t="s">
+      <c r="B12" s="24"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="E12" s="25"/>
-      <c r="F12" s="40"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="28"/>
     </row>
     <row r="13" ht="30" spans="2:6">
-      <c r="B13" s="37"/>
-      <c r="C13" s="38">
+      <c r="B13" s="24"/>
+      <c r="C13" s="25">
         <v>2</v>
       </c>
-      <c r="D13" s="39" t="str">
+      <c r="D13" s="26" t="str">
         <f>D7</f>
         <v>AI セキュリティと RAI 指標を定義および追跡して、有効性、成熟度、公平性、透明性、投資収益率を測定しています。</v>
       </c>
-      <c r="E13" s="25"/>
-      <c r="F13" s="40"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="28"/>
     </row>
     <row r="14" ht="90" spans="2:6">
-      <c r="B14" s="37"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="39" t="s">
+      <c r="B14" s="24"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="E14" s="25"/>
-      <c r="F14" s="40"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="28"/>
     </row>
     <row r="15" ht="30" spans="2:6">
-      <c r="B15" s="37"/>
-      <c r="C15" s="38">
+      <c r="B15" s="24"/>
+      <c r="C15" s="25">
         <v>3</v>
       </c>
-      <c r="D15" s="39" t="str">
+      <c r="D15" s="26" t="str">
         <f>D9</f>
         <v>反復学習、適応、倫理的な整合を通じて、AI セキュリティと RAI の態勢を継続的に改善しています。</v>
       </c>
-      <c r="E15" s="25"/>
-      <c r="F15" s="40"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="28"/>
     </row>
     <row r="16" ht="105" spans="2:6">
-      <c r="B16" s="37"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="39" t="s">
+      <c r="B16" s="24"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="E16" s="25"/>
-      <c r="F16" s="40"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="28"/>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="C17" s="34" t="s">
+      <c r="C17" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="D17" s="34" t="s">
+      <c r="D17" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="E17" s="35" t="s">
+      <c r="E17" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="F17" s="36" t="s">
+      <c r="F17" s="23" t="s">
         <v>102</v>
       </c>
     </row>
@@ -9815,3397 +9762,3397 @@
       <c r="B18" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C18" s="25">
+      <c r="C18" s="27">
         <v>1</v>
       </c>
-      <c r="D18" s="39" t="s">
+      <c r="D18" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="E18" s="25">
+      <c r="E18" s="27">
         <v>1</v>
       </c>
-      <c r="F18" s="25"/>
+      <c r="F18" s="27"/>
     </row>
     <row r="19" s="1" customFormat="1" ht="90" spans="2:6">
       <c r="B19" s="5"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="39" t="s">
+      <c r="C19" s="27"/>
+      <c r="D19" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
     </row>
     <row r="20" s="1" customFormat="1" ht="30" spans="2:6">
       <c r="B20" s="5"/>
-      <c r="C20" s="25">
+      <c r="C20" s="27">
         <v>2</v>
       </c>
-      <c r="D20" s="39" t="s">
+      <c r="D20" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
     </row>
     <row r="21" s="1" customFormat="1" ht="90" spans="2:6">
       <c r="B21" s="5"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="39" t="s">
+      <c r="C21" s="27"/>
+      <c r="D21" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
     </row>
     <row r="22" s="1" customFormat="1" ht="30" spans="2:6">
       <c r="B22" s="5"/>
-      <c r="C22" s="25">
+      <c r="C22" s="27">
         <v>3</v>
       </c>
-      <c r="D22" s="39" t="s">
+      <c r="D22" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
     </row>
     <row r="23" s="1" customFormat="1" ht="90" spans="2:6">
       <c r="B23" s="5"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="39" t="s">
+      <c r="C23" s="27"/>
+      <c r="D23" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
     </row>
     <row r="24" s="1" customFormat="1" ht="30" spans="2:6">
       <c r="B24" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C24" s="25">
+      <c r="C24" s="27">
         <v>1</v>
       </c>
-      <c r="D24" s="39" t="str">
+      <c r="D24" s="26" t="str">
         <f>D18</f>
         <v>基礎となるセキュリティ、プライバシー、倫理的義務に対処するために、ベースライン AI ポリシーとコンプライアンス意識を確立しています。</v>
       </c>
-      <c r="E24" s="25">
+      <c r="E24" s="27">
         <v>1</v>
       </c>
-      <c r="F24" s="25"/>
+      <c r="F24" s="27"/>
     </row>
     <row r="25" s="1" customFormat="1" ht="75" spans="2:6">
       <c r="B25" s="5"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="39" t="s">
+      <c r="C25" s="27"/>
+      <c r="D25" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
     </row>
     <row r="26" s="1" customFormat="1" ht="30" spans="2:6">
       <c r="B26" s="5"/>
-      <c r="C26" s="25">
+      <c r="C26" s="27">
         <v>2</v>
       </c>
-      <c r="D26" s="39" t="str">
+      <c r="D26" s="26" t="str">
         <f>D20</f>
         <v>AI ポリシーを文書化および施行し、セキュリティ、プライバシー、倫理に対応した構造化されたコンプライアンス プロセスを実装しています。</v>
       </c>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
     </row>
     <row r="27" s="1" customFormat="1" ht="105" spans="2:6">
       <c r="B27" s="5"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="39" t="s">
+      <c r="C27" s="27"/>
+      <c r="D27" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
     </row>
     <row r="28" s="1" customFormat="1" ht="30" spans="2:6">
       <c r="B28" s="5"/>
-      <c r="C28" s="25">
+      <c r="C28" s="27">
         <v>3</v>
       </c>
-      <c r="D28" s="39" t="str">
+      <c r="D28" s="26" t="str">
         <f>D22</f>
         <v>能動的な監視、ベンチマーク、および自動化により、ポリシーとコンプライアンス ガバナンスを継続的に最適化しています。</v>
       </c>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
     </row>
     <row r="29" s="1" customFormat="1" ht="90" spans="2:6">
       <c r="B29" s="5"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="39" t="s">
+      <c r="C29" s="27"/>
+      <c r="D29" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
     </row>
     <row r="30" spans="2:6">
-      <c r="B30" s="34" t="s">
+      <c r="B30" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="C30" s="34" t="s">
+      <c r="C30" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="D30" s="34" t="s">
+      <c r="D30" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="E30" s="35" t="s">
+      <c r="E30" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="F30" s="36" t="s">
+      <c r="F30" s="23" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="31" ht="30" spans="2:6">
-      <c r="B31" s="37" t="s">
+      <c r="B31" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="C31" s="38">
+      <c r="C31" s="25">
         <v>1</v>
       </c>
-      <c r="D31" s="39" t="s">
+      <c r="D31" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="E31" s="25">
+      <c r="E31" s="27">
         <v>1</v>
       </c>
-      <c r="F31" s="40"/>
+      <c r="F31" s="28"/>
     </row>
     <row r="32" ht="90" spans="2:6">
-      <c r="B32" s="37"/>
-      <c r="C32" s="38"/>
-      <c r="D32" s="39" t="s">
+      <c r="B32" s="24"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="E32" s="25"/>
-      <c r="F32" s="40"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="28"/>
     </row>
     <row r="33" ht="30" spans="2:6">
-      <c r="B33" s="37"/>
-      <c r="C33" s="38">
+      <c r="B33" s="24"/>
+      <c r="C33" s="25">
         <v>2</v>
       </c>
-      <c r="D33" s="39" t="s">
+      <c r="D33" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="E33" s="25"/>
-      <c r="F33" s="40"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="28"/>
     </row>
     <row r="34" ht="105" spans="2:6">
-      <c r="B34" s="37"/>
-      <c r="C34" s="38"/>
-      <c r="D34" s="39" t="s">
+      <c r="B34" s="24"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="E34" s="25"/>
-      <c r="F34" s="40"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="28"/>
     </row>
     <row r="35" ht="30" spans="2:6">
-      <c r="B35" s="37"/>
-      <c r="C35" s="38">
+      <c r="B35" s="24"/>
+      <c r="C35" s="25">
         <v>3</v>
       </c>
-      <c r="D35" s="39" t="s">
+      <c r="D35" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="E35" s="25"/>
-      <c r="F35" s="40"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="28"/>
     </row>
     <row r="36" ht="105" spans="2:6">
-      <c r="B36" s="37"/>
-      <c r="C36" s="38"/>
-      <c r="D36" s="39" t="s">
+      <c r="B36" s="24"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="E36" s="25"/>
-      <c r="F36" s="40"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="28"/>
     </row>
     <row r="37" ht="30" spans="2:6">
-      <c r="B37" s="37" t="s">
+      <c r="B37" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="C37" s="38">
+      <c r="C37" s="25">
         <v>1</v>
       </c>
-      <c r="D37" s="39" t="str">
+      <c r="D37" s="26" t="str">
         <f>D31</f>
         <v>AI イニシアチブに触れる人のために、ベースライン AI セキュリティと RAI に関する意識を確立しています。</v>
       </c>
-      <c r="E37" s="25">
+      <c r="E37" s="27">
         <v>2</v>
       </c>
-      <c r="F37" s="40"/>
+      <c r="F37" s="28"/>
     </row>
     <row r="38" ht="75" spans="2:6">
-      <c r="B38" s="37"/>
-      <c r="C38" s="38"/>
-      <c r="D38" s="39" t="s">
+      <c r="B38" s="24"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="E38" s="25"/>
-      <c r="F38" s="40"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="28"/>
     </row>
     <row r="39" ht="30" spans="2:6">
-      <c r="B39" s="37"/>
-      <c r="C39" s="38">
+      <c r="B39" s="24"/>
+      <c r="C39" s="25">
         <v>2</v>
       </c>
-      <c r="D39" s="39" t="str">
+      <c r="D39" s="26" t="str">
         <f>D33</f>
         <v>ポリシーとリスク選好に合わせた、構造化された役割ベースの AI セキュリティと RAI トレーニングが提供されています。</v>
       </c>
-      <c r="E39" s="25"/>
-      <c r="F39" s="40"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="28"/>
     </row>
     <row r="40" ht="90" spans="2:6">
-      <c r="B40" s="37"/>
-      <c r="C40" s="38"/>
-      <c r="D40" s="39" t="s">
+      <c r="B40" s="24"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="E40" s="25"/>
-      <c r="F40" s="40"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="28"/>
     </row>
     <row r="41" ht="30" spans="2:6">
-      <c r="B41" s="37"/>
-      <c r="C41" s="38">
+      <c r="B41" s="24"/>
+      <c r="C41" s="25">
         <v>3</v>
       </c>
-      <c r="D41" s="39" t="str">
+      <c r="D41" s="26" t="str">
         <f>D35</f>
         <v>進化する AI の脅威と規制に適応する、継続的なデータ駆動型の学習文化が組み込まれています。</v>
       </c>
-      <c r="E41" s="25"/>
-      <c r="F41" s="40"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="28"/>
     </row>
     <row r="42" ht="90" spans="2:6">
-      <c r="B42" s="37"/>
-      <c r="C42" s="38"/>
-      <c r="D42" s="39" t="s">
+      <c r="B42" s="24"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="E42" s="25"/>
-      <c r="F42" s="40"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="28"/>
     </row>
     <row r="43" spans="2:6">
-      <c r="B43" s="41" t="s">
+      <c r="B43" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="C43" s="41"/>
-      <c r="D43" s="41"/>
-      <c r="E43" s="41"/>
-      <c r="F43" s="41"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="29"/>
     </row>
     <row r="44" spans="2:6">
-      <c r="B44" s="34" t="s">
+      <c r="B44" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="C44" s="34" t="s">
+      <c r="C44" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="D44" s="42" t="s">
+      <c r="D44" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="E44" s="35" t="s">
+      <c r="E44" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="F44" s="36" t="s">
+      <c r="F44" s="23" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="45" spans="2:6">
-      <c r="B45" s="37" t="s">
+      <c r="B45" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="C45" s="38">
+      <c r="C45" s="25">
         <v>1</v>
       </c>
-      <c r="D45" s="39" t="s">
+      <c r="D45" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="E45" s="25">
+      <c r="E45" s="27">
         <v>1</v>
       </c>
-      <c r="F45" s="40"/>
+      <c r="F45" s="28"/>
     </row>
     <row r="46" ht="90" spans="2:6">
-      <c r="B46" s="37"/>
-      <c r="C46" s="38"/>
-      <c r="D46" s="43" t="s">
+      <c r="B46" s="24"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="E46" s="25"/>
-      <c r="F46" s="40"/>
+      <c r="E46" s="27"/>
+      <c r="F46" s="28"/>
     </row>
     <row r="47" spans="2:6">
-      <c r="B47" s="37"/>
-      <c r="C47" s="38">
+      <c r="B47" s="24"/>
+      <c r="C47" s="25">
         <v>2</v>
       </c>
-      <c r="D47" s="39" t="s">
+      <c r="D47" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="E47" s="25"/>
-      <c r="F47" s="40"/>
+      <c r="E47" s="27"/>
+      <c r="F47" s="28"/>
     </row>
     <row r="48" ht="90" spans="2:6">
-      <c r="B48" s="37"/>
-      <c r="C48" s="38"/>
-      <c r="D48" s="39" t="s">
+      <c r="B48" s="24"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="E48" s="25"/>
-      <c r="F48" s="40"/>
+      <c r="E48" s="27"/>
+      <c r="F48" s="28"/>
     </row>
     <row r="49" spans="2:6">
-      <c r="B49" s="37"/>
-      <c r="C49" s="38">
+      <c r="B49" s="24"/>
+      <c r="C49" s="25">
         <v>3</v>
       </c>
-      <c r="D49" s="39" t="s">
+      <c r="D49" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="E49" s="25"/>
-      <c r="F49" s="40"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="28"/>
     </row>
     <row r="50" ht="90" spans="2:6">
-      <c r="B50" s="37"/>
-      <c r="C50" s="38"/>
-      <c r="D50" s="39" t="s">
+      <c r="B50" s="24"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="E50" s="25"/>
-      <c r="F50" s="40"/>
+      <c r="E50" s="27"/>
+      <c r="F50" s="28"/>
     </row>
     <row r="51" spans="2:6">
-      <c r="B51" s="37" t="s">
+      <c r="B51" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="C51" s="38">
+      <c r="C51" s="25">
         <v>1</v>
       </c>
-      <c r="D51" s="39" t="str">
+      <c r="D51" s="26" t="str">
         <f>D45</f>
         <v>受動的アプローチ（取り組みは非公式、アドホック、受動的）</v>
       </c>
-      <c r="E51" s="25">
+      <c r="E51" s="27">
         <v>1</v>
       </c>
-      <c r="F51" s="40"/>
+      <c r="F51" s="28"/>
     </row>
     <row r="52" ht="90" spans="2:6">
-      <c r="B52" s="37"/>
-      <c r="C52" s="38"/>
-      <c r="D52" s="39" t="s">
+      <c r="B52" s="24"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="E52" s="25"/>
-      <c r="F52" s="40"/>
+      <c r="E52" s="27"/>
+      <c r="F52" s="28"/>
     </row>
     <row r="53" spans="2:6">
-      <c r="B53" s="37"/>
-      <c r="C53" s="38">
+      <c r="B53" s="24"/>
+      <c r="C53" s="25">
         <v>2</v>
       </c>
-      <c r="D53" s="39" t="str">
+      <c r="D53" s="26" t="str">
         <f>D47</f>
         <v>構造化された実装（正式なポリシーとプロセスはあるが、統合は限定的）</v>
       </c>
-      <c r="E53" s="25"/>
-      <c r="F53" s="40"/>
+      <c r="E53" s="27"/>
+      <c r="F53" s="28"/>
     </row>
     <row r="54" ht="90" spans="2:6">
-      <c r="B54" s="37"/>
-      <c r="C54" s="38"/>
-      <c r="D54" s="39" t="s">
+      <c r="B54" s="24"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="E54" s="25"/>
-      <c r="F54" s="40"/>
+      <c r="E54" s="27"/>
+      <c r="F54" s="28"/>
     </row>
     <row r="55" spans="2:6">
-      <c r="B55" s="37"/>
-      <c r="C55" s="38">
+      <c r="B55" s="24"/>
+      <c r="C55" s="25">
         <v>3</v>
       </c>
-      <c r="D55" s="39" t="str">
+      <c r="D55" s="26" t="str">
         <f>D49</f>
         <v>公平性の文化の組込み（コア プロセスに完全統合、自動監視、継続的な改善）</v>
       </c>
-      <c r="E55" s="25"/>
-      <c r="F55" s="40"/>
+      <c r="E55" s="27"/>
+      <c r="F55" s="28"/>
     </row>
     <row r="56" ht="90" spans="2:6">
-      <c r="B56" s="37"/>
-      <c r="C56" s="38"/>
-      <c r="D56" s="39" t="s">
+      <c r="B56" s="24"/>
+      <c r="C56" s="25"/>
+      <c r="D56" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="E56" s="25"/>
-      <c r="F56" s="40"/>
+      <c r="E56" s="27"/>
+      <c r="F56" s="28"/>
     </row>
     <row r="57" spans="2:6">
-      <c r="B57" s="34" t="s">
+      <c r="B57" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="C57" s="34" t="s">
+      <c r="C57" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="D57" s="42" t="s">
+      <c r="D57" s="30" t="s">
         <v>137</v>
       </c>
-      <c r="E57" s="35" t="s">
+      <c r="E57" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="F57" s="36" t="s">
+      <c r="F57" s="23" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="58" spans="2:6">
-      <c r="B58" s="37" t="s">
+      <c r="B58" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="C58" s="38">
+      <c r="C58" s="25">
         <v>1</v>
       </c>
-      <c r="D58" s="39" t="s">
+      <c r="D58" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="E58" s="25">
+      <c r="E58" s="27">
         <v>1</v>
       </c>
-      <c r="F58" s="40"/>
+      <c r="F58" s="28"/>
     </row>
     <row r="59" ht="90" spans="2:6">
-      <c r="B59" s="37"/>
-      <c r="C59" s="38"/>
-      <c r="D59" s="39" t="s">
+      <c r="B59" s="24"/>
+      <c r="C59" s="25"/>
+      <c r="D59" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="E59" s="25"/>
-      <c r="F59" s="40"/>
+      <c r="E59" s="27"/>
+      <c r="F59" s="28"/>
     </row>
     <row r="60" spans="2:6">
-      <c r="B60" s="37"/>
-      <c r="C60" s="38">
+      <c r="B60" s="24"/>
+      <c r="C60" s="25">
         <v>2</v>
       </c>
-      <c r="D60" s="39" t="s">
+      <c r="D60" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="E60" s="25"/>
-      <c r="F60" s="40"/>
+      <c r="E60" s="27"/>
+      <c r="F60" s="28"/>
     </row>
     <row r="61" ht="90" spans="2:6">
-      <c r="B61" s="37"/>
-      <c r="C61" s="38"/>
-      <c r="D61" s="39" t="s">
+      <c r="B61" s="24"/>
+      <c r="C61" s="25"/>
+      <c r="D61" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="E61" s="25"/>
-      <c r="F61" s="40"/>
+      <c r="E61" s="27"/>
+      <c r="F61" s="28"/>
     </row>
     <row r="62" spans="2:6">
-      <c r="B62" s="37"/>
-      <c r="C62" s="38">
+      <c r="B62" s="24"/>
+      <c r="C62" s="25">
         <v>3</v>
       </c>
-      <c r="D62" s="39" t="s">
+      <c r="D62" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="E62" s="25"/>
-      <c r="F62" s="40"/>
+      <c r="E62" s="27"/>
+      <c r="F62" s="28"/>
     </row>
     <row r="63" ht="90" spans="2:6">
-      <c r="B63" s="37"/>
-      <c r="C63" s="38"/>
-      <c r="D63" s="39" t="s">
+      <c r="B63" s="24"/>
+      <c r="C63" s="25"/>
+      <c r="D63" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="E63" s="25"/>
-      <c r="F63" s="40"/>
+      <c r="E63" s="27"/>
+      <c r="F63" s="28"/>
     </row>
     <row r="64" spans="2:6">
-      <c r="B64" s="37" t="s">
+      <c r="B64" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="C64" s="38">
+      <c r="C64" s="25">
         <v>1</v>
       </c>
-      <c r="D64" s="39" t="str">
+      <c r="D64" s="26" t="str">
         <f>D58</f>
         <v>受動的アプローチ（一貫性がなく、要求に応じてのみ提供される透明性）</v>
       </c>
-      <c r="E64" s="25">
+      <c r="E64" s="27">
         <v>1</v>
       </c>
-      <c r="F64" s="40"/>
+      <c r="F64" s="28"/>
     </row>
     <row r="65" ht="90" spans="2:6">
-      <c r="B65" s="37"/>
-      <c r="C65" s="38"/>
-      <c r="D65" s="39" t="s">
+      <c r="B65" s="24"/>
+      <c r="C65" s="25"/>
+      <c r="D65" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="E65" s="25"/>
-      <c r="F65" s="40"/>
+      <c r="E65" s="27"/>
+      <c r="F65" s="28"/>
     </row>
     <row r="66" spans="2:6">
-      <c r="B66" s="37"/>
-      <c r="C66" s="38">
+      <c r="B66" s="24"/>
+      <c r="C66" s="25">
         <v>2</v>
       </c>
-      <c r="D66" s="39" t="str">
+      <c r="D66" s="26" t="str">
         <f>D60</f>
         <v>構造化された実装（正式なポリシーとツール、明確な責任の確立）</v>
       </c>
-      <c r="E66" s="25"/>
-      <c r="F66" s="40"/>
+      <c r="E66" s="27"/>
+      <c r="F66" s="28"/>
     </row>
     <row r="67" ht="75" spans="2:6">
-      <c r="B67" s="37"/>
-      <c r="C67" s="38"/>
-      <c r="D67" s="39" t="s">
+      <c r="B67" s="24"/>
+      <c r="C67" s="25"/>
+      <c r="D67" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="E67" s="25"/>
-      <c r="F67" s="40"/>
+      <c r="E67" s="27"/>
+      <c r="F67" s="28"/>
     </row>
     <row r="68" spans="2:6">
-      <c r="B68" s="37"/>
-      <c r="C68" s="38">
+      <c r="B68" s="24"/>
+      <c r="C68" s="25">
         <v>3</v>
       </c>
-      <c r="D68" s="39" t="str">
+      <c r="D68" s="26" t="str">
         <f>D62</f>
         <v>透明性文化の定着（継続的な測定、目標に合わせた自動化された透明性）</v>
       </c>
-      <c r="E68" s="25"/>
-      <c r="F68" s="40"/>
+      <c r="E68" s="27"/>
+      <c r="F68" s="28"/>
     </row>
     <row r="69" ht="90" spans="2:6">
-      <c r="B69" s="37"/>
-      <c r="C69" s="38"/>
-      <c r="D69" s="39" t="s">
+      <c r="B69" s="24"/>
+      <c r="C69" s="25"/>
+      <c r="D69" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="E69" s="25"/>
-      <c r="F69" s="40"/>
+      <c r="E69" s="27"/>
+      <c r="F69" s="28"/>
     </row>
     <row r="70" spans="2:6">
-      <c r="B70" s="34" t="s">
+      <c r="B70" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="C70" s="34" t="s">
+      <c r="C70" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="D70" s="42" t="s">
+      <c r="D70" s="30" t="s">
         <v>147</v>
       </c>
-      <c r="E70" s="35" t="s">
+      <c r="E70" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="F70" s="36" t="s">
+      <c r="F70" s="23" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="71" spans="2:6">
-      <c r="B71" s="37" t="s">
+      <c r="B71" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="C71" s="38">
+      <c r="C71" s="25">
         <v>1</v>
       </c>
-      <c r="D71" s="39" t="s">
+      <c r="D71" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="E71" s="25">
+      <c r="E71" s="27">
         <v>1</v>
       </c>
-      <c r="F71" s="40"/>
+      <c r="F71" s="28"/>
     </row>
     <row r="72" ht="90" spans="2:6">
-      <c r="B72" s="37"/>
-      <c r="C72" s="38"/>
-      <c r="D72" s="39" t="s">
+      <c r="B72" s="24"/>
+      <c r="C72" s="25"/>
+      <c r="D72" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="E72" s="25"/>
-      <c r="F72" s="40"/>
+      <c r="E72" s="27"/>
+      <c r="F72" s="28"/>
     </row>
     <row r="73" spans="2:6">
-      <c r="B73" s="37"/>
-      <c r="C73" s="38">
+      <c r="B73" s="24"/>
+      <c r="C73" s="25">
         <v>2</v>
       </c>
-      <c r="D73" s="39" t="s">
+      <c r="D73" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="E73" s="25"/>
-      <c r="F73" s="40"/>
+      <c r="E73" s="27"/>
+      <c r="F73" s="28"/>
     </row>
     <row r="74" ht="90" spans="2:6">
-      <c r="B74" s="37"/>
-      <c r="C74" s="38"/>
-      <c r="D74" s="39" t="s">
+      <c r="B74" s="24"/>
+      <c r="C74" s="25"/>
+      <c r="D74" s="26" t="s">
         <v>151</v>
       </c>
-      <c r="E74" s="25"/>
-      <c r="F74" s="40"/>
+      <c r="E74" s="27"/>
+      <c r="F74" s="28"/>
     </row>
     <row r="75" spans="2:6">
-      <c r="B75" s="37"/>
-      <c r="C75" s="38">
+      <c r="B75" s="24"/>
+      <c r="C75" s="25">
         <v>3</v>
       </c>
-      <c r="D75" s="39" t="s">
+      <c r="D75" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="E75" s="25"/>
-      <c r="F75" s="40"/>
+      <c r="E75" s="27"/>
+      <c r="F75" s="28"/>
     </row>
     <row r="76" ht="90" spans="2:6">
-      <c r="B76" s="37"/>
-      <c r="C76" s="38"/>
-      <c r="D76" s="39" t="s">
+      <c r="B76" s="24"/>
+      <c r="C76" s="25"/>
+      <c r="D76" s="26" t="s">
         <v>153</v>
       </c>
-      <c r="E76" s="25"/>
-      <c r="F76" s="40"/>
+      <c r="E76" s="27"/>
+      <c r="F76" s="28"/>
     </row>
     <row r="77" spans="2:6">
-      <c r="B77" s="37" t="s">
+      <c r="B77" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="C77" s="38">
+      <c r="C77" s="25">
         <v>1</v>
       </c>
-      <c r="D77" s="39" t="str">
+      <c r="D77" s="26" t="str">
         <f>D71</f>
         <v>受動的アプローチ（倫理的配慮を非公式かつ受動的に処理）</v>
       </c>
-      <c r="E77" s="25">
+      <c r="E77" s="27">
         <v>1</v>
       </c>
-      <c r="F77" s="40"/>
+      <c r="F77" s="28"/>
     </row>
     <row r="78" ht="90" spans="2:6">
-      <c r="B78" s="37"/>
-      <c r="C78" s="38"/>
-      <c r="D78" s="39" t="s">
+      <c r="B78" s="24"/>
+      <c r="C78" s="25"/>
+      <c r="D78" s="26" t="s">
         <v>154</v>
       </c>
-      <c r="E78" s="25"/>
-      <c r="F78" s="40"/>
+      <c r="E78" s="27"/>
+      <c r="F78" s="28"/>
     </row>
     <row r="79" spans="2:6">
-      <c r="B79" s="37"/>
-      <c r="C79" s="38">
+      <c r="B79" s="24"/>
+      <c r="C79" s="25">
         <v>2</v>
       </c>
-      <c r="D79" s="39" t="str">
+      <c r="D79" s="26" t="str">
         <f>D73</f>
         <v>構造化された実装（正式な倫理的枠組み、ポリシー、役割の確立）</v>
       </c>
-      <c r="E79" s="25"/>
-      <c r="F79" s="40"/>
+      <c r="E79" s="27"/>
+      <c r="F79" s="28"/>
     </row>
     <row r="80" ht="60" spans="2:6">
-      <c r="B80" s="37"/>
-      <c r="C80" s="38"/>
-      <c r="D80" s="39" t="s">
+      <c r="B80" s="24"/>
+      <c r="C80" s="25"/>
+      <c r="D80" s="26" t="s">
         <v>155</v>
       </c>
-      <c r="E80" s="25"/>
-      <c r="F80" s="40"/>
+      <c r="E80" s="27"/>
+      <c r="F80" s="28"/>
     </row>
     <row r="81" spans="2:6">
-      <c r="B81" s="37"/>
-      <c r="C81" s="38">
+      <c r="B81" s="24"/>
+      <c r="C81" s="25">
         <v>3</v>
       </c>
-      <c r="D81" s="39" t="str">
+      <c r="D81" s="26" t="str">
         <f>D75</f>
         <v>倫理的文化の定着（継続的に監視、統合され、文化的に強化されている倫理）</v>
       </c>
-      <c r="E81" s="25"/>
-      <c r="F81" s="40"/>
+      <c r="E81" s="27"/>
+      <c r="F81" s="28"/>
     </row>
     <row r="82" ht="90" spans="2:6">
-      <c r="B82" s="37"/>
-      <c r="C82" s="38"/>
-      <c r="D82" s="39" t="s">
+      <c r="B82" s="24"/>
+      <c r="C82" s="25"/>
+      <c r="D82" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="E82" s="25"/>
-      <c r="F82" s="40"/>
+      <c r="E82" s="27"/>
+      <c r="F82" s="28"/>
     </row>
     <row r="83" spans="2:6">
-      <c r="B83" s="41" t="s">
+      <c r="B83" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="C83" s="41"/>
-      <c r="D83" s="41"/>
-      <c r="E83" s="41"/>
-      <c r="F83" s="41"/>
+      <c r="C83" s="29"/>
+      <c r="D83" s="29"/>
+      <c r="E83" s="29"/>
+      <c r="F83" s="29"/>
     </row>
     <row r="84" spans="2:6">
-      <c r="B84" s="34" t="s">
+      <c r="B84" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="C84" s="34" t="s">
+      <c r="C84" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="D84" s="42" t="s">
+      <c r="D84" s="30" t="s">
         <v>157</v>
       </c>
-      <c r="E84" s="35" t="s">
+      <c r="E84" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="F84" s="36" t="s">
+      <c r="F84" s="23" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="85" ht="30" spans="2:6">
-      <c r="B85" s="37" t="s">
+      <c r="B85" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="C85" s="38">
+      <c r="C85" s="25">
         <v>1</v>
       </c>
-      <c r="D85" s="39" t="s">
+      <c r="D85" s="26" t="s">
         <v>159</v>
       </c>
-      <c r="E85" s="25">
+      <c r="E85" s="27">
         <v>1</v>
       </c>
-      <c r="F85" s="40"/>
+      <c r="F85" s="28"/>
     </row>
     <row r="86" ht="60" spans="2:6">
-      <c r="B86" s="37"/>
-      <c r="C86" s="38"/>
-      <c r="D86" s="39" t="s">
+      <c r="B86" s="24"/>
+      <c r="C86" s="25"/>
+      <c r="D86" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="E86" s="25"/>
-      <c r="F86" s="40"/>
+      <c r="E86" s="27"/>
+      <c r="F86" s="28"/>
     </row>
     <row r="87" ht="30" spans="2:6">
-      <c r="B87" s="37"/>
-      <c r="C87" s="38">
+      <c r="B87" s="24"/>
+      <c r="C87" s="25">
         <v>2</v>
       </c>
-      <c r="D87" s="39" t="s">
+      <c r="D87" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="E87" s="25"/>
-      <c r="F87" s="40"/>
+      <c r="E87" s="27"/>
+      <c r="F87" s="28"/>
     </row>
     <row r="88" ht="60" spans="2:6">
-      <c r="B88" s="37"/>
-      <c r="C88" s="38"/>
-      <c r="D88" s="39" t="s">
+      <c r="B88" s="24"/>
+      <c r="C88" s="25"/>
+      <c r="D88" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="E88" s="25"/>
-      <c r="F88" s="40"/>
+      <c r="E88" s="27"/>
+      <c r="F88" s="28"/>
     </row>
     <row r="89" ht="30" spans="2:6">
-      <c r="B89" s="37"/>
-      <c r="C89" s="38">
+      <c r="B89" s="24"/>
+      <c r="C89" s="25">
         <v>3</v>
       </c>
-      <c r="D89" s="39" t="s">
+      <c r="D89" s="26" t="s">
         <v>163</v>
       </c>
-      <c r="E89" s="25"/>
-      <c r="F89" s="40"/>
+      <c r="E89" s="27"/>
+      <c r="F89" s="28"/>
     </row>
     <row r="90" ht="90" spans="2:6">
-      <c r="B90" s="37"/>
-      <c r="C90" s="38"/>
-      <c r="D90" s="39" t="s">
+      <c r="B90" s="24"/>
+      <c r="C90" s="25"/>
+      <c r="D90" s="26" t="s">
         <v>164</v>
       </c>
-      <c r="E90" s="25"/>
-      <c r="F90" s="40"/>
+      <c r="E90" s="27"/>
+      <c r="F90" s="28"/>
     </row>
     <row r="91" ht="30" spans="2:6">
-      <c r="B91" s="37" t="s">
+      <c r="B91" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="C91" s="38">
+      <c r="C91" s="25">
         <v>1</v>
       </c>
-      <c r="D91" s="39" t="str">
+      <c r="D91" s="26" t="str">
         <f>D85</f>
         <v>アドホック/初期状態（非構造化かつ一貫性のない慣行、標準的なデータ品質や整合性手続きの欠如）</v>
       </c>
-      <c r="E91" s="25">
+      <c r="E91" s="27">
         <v>0</v>
       </c>
-      <c r="F91" s="40"/>
+      <c r="F91" s="28"/>
     </row>
     <row r="92" ht="45" spans="2:6">
-      <c r="B92" s="37"/>
-      <c r="C92" s="38"/>
-      <c r="D92" s="39" t="s">
+      <c r="B92" s="24"/>
+      <c r="C92" s="25"/>
+      <c r="D92" s="26" t="s">
         <v>166</v>
       </c>
-      <c r="E92" s="25"/>
-      <c r="F92" s="40"/>
+      <c r="E92" s="27"/>
+      <c r="F92" s="28"/>
     </row>
     <row r="93" ht="30" spans="2:6">
-      <c r="B93" s="37"/>
-      <c r="C93" s="38">
+      <c r="B93" s="24"/>
+      <c r="C93" s="25">
         <v>2</v>
       </c>
-      <c r="D93" s="39" t="str">
+      <c r="D93" s="26" t="str">
         <f>D87</f>
         <v>定義済み/発展途上状態（データの品質と整合性を管理するための基本的な構造と初期ルールが実装されています）</v>
       </c>
-      <c r="E93" s="25"/>
-      <c r="F93" s="40"/>
+      <c r="E93" s="27"/>
+      <c r="F93" s="28"/>
     </row>
     <row r="94" ht="90" spans="2:6">
-      <c r="B94" s="37"/>
-      <c r="C94" s="38"/>
-      <c r="D94" s="39" t="s">
+      <c r="B94" s="24"/>
+      <c r="C94" s="25"/>
+      <c r="D94" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="E94" s="25"/>
-      <c r="F94" s="40"/>
+      <c r="E94" s="27"/>
+      <c r="F94" s="28"/>
     </row>
     <row r="95" ht="30" spans="2:6">
-      <c r="B95" s="37"/>
-      <c r="C95" s="38">
+      <c r="B95" s="24"/>
+      <c r="C95" s="25">
         <v>3</v>
       </c>
-      <c r="D95" s="39" t="str">
+      <c r="D95" s="26" t="str">
         <f>D89</f>
         <v>管理されている/運用状態（品質と整合性を維持するための堅牢で自動化された仕組みを備えた、完全に統合されたデータ管理慣行）</v>
       </c>
-      <c r="E95" s="25"/>
-      <c r="F95" s="40"/>
+      <c r="E95" s="27"/>
+      <c r="F95" s="28"/>
     </row>
     <row r="96" ht="90" spans="2:6">
-      <c r="B96" s="37"/>
-      <c r="C96" s="38"/>
-      <c r="D96" s="39" t="s">
+      <c r="B96" s="24"/>
+      <c r="C96" s="25"/>
+      <c r="D96" s="26" t="s">
         <v>168</v>
       </c>
-      <c r="E96" s="25"/>
-      <c r="F96" s="40"/>
+      <c r="E96" s="27"/>
+      <c r="F96" s="28"/>
     </row>
     <row r="97" spans="2:6">
-      <c r="B97" s="34" t="s">
+      <c r="B97" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="C97" s="34" t="s">
+      <c r="C97" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="D97" s="42" t="s">
+      <c r="D97" s="30" t="s">
         <v>169</v>
       </c>
-      <c r="E97" s="35" t="s">
+      <c r="E97" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="F97" s="36" t="s">
+      <c r="F97" s="23" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="98" spans="2:6">
-      <c r="B98" s="37" t="s">
+      <c r="B98" s="24" t="s">
         <v>170</v>
       </c>
-      <c r="C98" s="38">
+      <c r="C98" s="25">
         <v>1</v>
       </c>
-      <c r="D98" s="39" t="s">
+      <c r="D98" s="26" t="s">
         <v>171</v>
       </c>
-      <c r="E98" s="25">
+      <c r="E98" s="27">
         <v>0</v>
       </c>
-      <c r="F98" s="40"/>
+      <c r="F98" s="28"/>
     </row>
     <row r="99" ht="90" spans="2:6">
-      <c r="B99" s="37"/>
-      <c r="C99" s="38"/>
-      <c r="D99" s="39" t="s">
+      <c r="B99" s="24"/>
+      <c r="C99" s="25"/>
+      <c r="D99" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="E99" s="25"/>
-      <c r="F99" s="40"/>
+      <c r="E99" s="27"/>
+      <c r="F99" s="28"/>
     </row>
     <row r="100" spans="2:6">
-      <c r="B100" s="37"/>
-      <c r="C100" s="38">
+      <c r="B100" s="24"/>
+      <c r="C100" s="25">
         <v>2</v>
       </c>
-      <c r="D100" s="39" t="s">
+      <c r="D100" s="26" t="s">
         <v>173</v>
       </c>
-      <c r="E100" s="25"/>
-      <c r="F100" s="40"/>
+      <c r="E100" s="27"/>
+      <c r="F100" s="28"/>
     </row>
     <row r="101" ht="75" spans="2:6">
-      <c r="B101" s="37"/>
-      <c r="C101" s="38"/>
-      <c r="D101" s="39" t="s">
+      <c r="B101" s="24"/>
+      <c r="C101" s="25"/>
+      <c r="D101" s="26" t="s">
         <v>174</v>
       </c>
-      <c r="E101" s="25"/>
-      <c r="F101" s="40"/>
+      <c r="E101" s="27"/>
+      <c r="F101" s="28"/>
     </row>
     <row r="102" ht="30" spans="2:6">
-      <c r="B102" s="37"/>
-      <c r="C102" s="38">
+      <c r="B102" s="24"/>
+      <c r="C102" s="25">
         <v>3</v>
       </c>
-      <c r="D102" s="39" t="s">
+      <c r="D102" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="E102" s="25"/>
-      <c r="F102" s="40"/>
+      <c r="E102" s="27"/>
+      <c r="F102" s="28"/>
     </row>
     <row r="103" ht="90" spans="2:6">
-      <c r="B103" s="37"/>
-      <c r="C103" s="38"/>
-      <c r="D103" s="39" t="s">
+      <c r="B103" s="24"/>
+      <c r="C103" s="25"/>
+      <c r="D103" s="26" t="s">
         <v>176</v>
       </c>
-      <c r="E103" s="25"/>
-      <c r="F103" s="40"/>
+      <c r="E103" s="27"/>
+      <c r="F103" s="28"/>
     </row>
     <row r="104" spans="2:6">
-      <c r="B104" s="37" t="s">
+      <c r="B104" s="24" t="s">
         <v>177</v>
       </c>
-      <c r="C104" s="38">
+      <c r="C104" s="25">
         <v>1</v>
       </c>
-      <c r="D104" s="39" t="str">
+      <c r="D104" s="26" t="str">
         <f>D98</f>
         <v>アドホック/初期状態（構造化されたガバナンスや責任追跡性の欠如）</v>
       </c>
-      <c r="E104" s="25">
+      <c r="E104" s="27">
         <v>1</v>
       </c>
-      <c r="F104" s="40"/>
+      <c r="F104" s="28"/>
     </row>
     <row r="105" ht="90" spans="2:6">
-      <c r="B105" s="37"/>
-      <c r="C105" s="38"/>
-      <c r="D105" s="39" t="s">
+      <c r="B105" s="24"/>
+      <c r="C105" s="25"/>
+      <c r="D105" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="E105" s="25"/>
-      <c r="F105" s="40"/>
+      <c r="E105" s="27"/>
+      <c r="F105" s="28"/>
     </row>
     <row r="106" spans="2:6">
-      <c r="B106" s="37"/>
-      <c r="C106" s="38">
+      <c r="B106" s="24"/>
+      <c r="C106" s="25">
         <v>2</v>
       </c>
-      <c r="D106" s="39" t="str">
+      <c r="D106" s="26" t="str">
         <f>D100</f>
         <v>定義済み/発展途上状態（新たなガバナンス構造と初期の責任追跡性の役割）</v>
       </c>
-      <c r="E106" s="25"/>
-      <c r="F106" s="40"/>
+      <c r="E106" s="27"/>
+      <c r="F106" s="28"/>
     </row>
     <row r="107" ht="90" spans="2:6">
-      <c r="B107" s="37"/>
-      <c r="C107" s="38"/>
-      <c r="D107" s="39" t="s">
+      <c r="B107" s="24"/>
+      <c r="C107" s="25"/>
+      <c r="D107" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="E107" s="25"/>
-      <c r="F107" s="40"/>
+      <c r="E107" s="27"/>
+      <c r="F107" s="28"/>
     </row>
     <row r="108" ht="30" spans="2:6">
-      <c r="B108" s="37"/>
-      <c r="C108" s="38">
+      <c r="B108" s="24"/>
+      <c r="C108" s="25">
         <v>3</v>
       </c>
-      <c r="D108" s="39" t="str">
+      <c r="D108" s="26" t="str">
         <f>D102</f>
         <v>管理されている/運用状態（エンタープライズ全体の堅牢なガバナンスと責任追跡性）</v>
       </c>
-      <c r="E108" s="25"/>
-      <c r="F108" s="40"/>
+      <c r="E108" s="27"/>
+      <c r="F108" s="28"/>
     </row>
     <row r="109" ht="90" spans="2:6">
-      <c r="B109" s="37"/>
-      <c r="C109" s="38"/>
-      <c r="D109" s="39" t="s">
+      <c r="B109" s="24"/>
+      <c r="C109" s="25"/>
+      <c r="D109" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="E109" s="25"/>
-      <c r="F109" s="40"/>
+      <c r="E109" s="27"/>
+      <c r="F109" s="28"/>
     </row>
     <row r="110" spans="2:6">
-      <c r="B110" s="34" t="s">
+      <c r="B110" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="C110" s="34" t="s">
+      <c r="C110" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="D110" s="42" t="s">
+      <c r="D110" s="30" t="s">
         <v>181</v>
       </c>
-      <c r="E110" s="35" t="s">
+      <c r="E110" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="F110" s="36" t="s">
+      <c r="F110" s="23" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="111" ht="30" spans="2:6">
-      <c r="B111" s="37" t="s">
+      <c r="B111" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="C111" s="38">
+      <c r="C111" s="25">
         <v>1</v>
       </c>
-      <c r="D111" s="39" t="s">
+      <c r="D111" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="E111" s="25">
+      <c r="E111" s="27">
         <v>1</v>
       </c>
-      <c r="F111" s="40"/>
+      <c r="F111" s="28"/>
     </row>
     <row r="112" ht="90" spans="2:6">
-      <c r="B112" s="37"/>
-      <c r="C112" s="38"/>
-      <c r="D112" s="39" t="s">
+      <c r="B112" s="24"/>
+      <c r="C112" s="25"/>
+      <c r="D112" s="26" t="s">
         <v>184</v>
       </c>
-      <c r="E112" s="25"/>
-      <c r="F112" s="40"/>
+      <c r="E112" s="27"/>
+      <c r="F112" s="28"/>
     </row>
     <row r="113" ht="30" spans="2:6">
-      <c r="B113" s="37"/>
-      <c r="C113" s="38">
+      <c r="B113" s="24"/>
+      <c r="C113" s="25">
         <v>2</v>
       </c>
-      <c r="D113" s="39" t="s">
+      <c r="D113" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="E113" s="25"/>
-      <c r="F113" s="40"/>
+      <c r="E113" s="27"/>
+      <c r="F113" s="28"/>
     </row>
     <row r="114" ht="90" spans="2:6">
-      <c r="B114" s="37"/>
-      <c r="C114" s="38"/>
-      <c r="D114" s="39" t="s">
+      <c r="B114" s="24"/>
+      <c r="C114" s="25"/>
+      <c r="D114" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="E114" s="25"/>
-      <c r="F114" s="40"/>
+      <c r="E114" s="27"/>
+      <c r="F114" s="28"/>
     </row>
     <row r="115" ht="30" spans="2:6">
-      <c r="B115" s="37"/>
-      <c r="C115" s="38">
+      <c r="B115" s="24"/>
+      <c r="C115" s="25">
         <v>3</v>
       </c>
-      <c r="D115" s="39" t="s">
+      <c r="D115" s="26" t="s">
         <v>187</v>
       </c>
-      <c r="E115" s="25"/>
-      <c r="F115" s="40"/>
+      <c r="E115" s="27"/>
+      <c r="F115" s="28"/>
     </row>
     <row r="116" ht="90" spans="2:6">
-      <c r="B116" s="37"/>
-      <c r="C116" s="38"/>
-      <c r="D116" s="39" t="s">
+      <c r="B116" s="24"/>
+      <c r="C116" s="25"/>
+      <c r="D116" s="26" t="s">
         <v>188</v>
       </c>
-      <c r="E116" s="25"/>
-      <c r="F116" s="40"/>
+      <c r="E116" s="27"/>
+      <c r="F116" s="28"/>
     </row>
     <row r="117" ht="30" spans="2:6">
-      <c r="B117" s="37" t="s">
+      <c r="B117" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="C117" s="38">
+      <c r="C117" s="25">
         <v>1</v>
       </c>
-      <c r="D117" s="39" t="str">
+      <c r="D117" s="26" t="str">
         <f>D111</f>
         <v>アドホック/初期状態（学習データの管理は構造化されておらず、非公式であり、標準がありません）</v>
       </c>
-      <c r="E117" s="25">
+      <c r="E117" s="27">
         <v>1</v>
       </c>
-      <c r="F117" s="40"/>
+      <c r="F117" s="28"/>
     </row>
     <row r="118" ht="90" spans="2:6">
-      <c r="B118" s="37"/>
-      <c r="C118" s="38"/>
-      <c r="D118" s="39" t="s">
+      <c r="B118" s="24"/>
+      <c r="C118" s="25"/>
+      <c r="D118" s="26" t="s">
         <v>190</v>
       </c>
-      <c r="E118" s="25"/>
-      <c r="F118" s="40"/>
+      <c r="E118" s="27"/>
+      <c r="F118" s="28"/>
     </row>
     <row r="119" ht="30" spans="2:6">
-      <c r="B119" s="37"/>
-      <c r="C119" s="38">
+      <c r="B119" s="24"/>
+      <c r="C119" s="25">
         <v>2</v>
       </c>
-      <c r="D119" s="39" t="str">
+      <c r="D119" s="26" t="str">
         <f>D113</f>
         <v>定義済み/発展途上状態（基本的なガイドラインと初期のコンプライアンス意識が確立されています）</v>
       </c>
-      <c r="E119" s="25"/>
-      <c r="F119" s="40"/>
+      <c r="E119" s="27"/>
+      <c r="F119" s="28"/>
     </row>
     <row r="120" ht="90" spans="2:6">
-      <c r="B120" s="37"/>
-      <c r="C120" s="38"/>
-      <c r="D120" s="39" t="s">
+      <c r="B120" s="24"/>
+      <c r="C120" s="25"/>
+      <c r="D120" s="26" t="s">
         <v>191</v>
       </c>
-      <c r="E120" s="25"/>
-      <c r="F120" s="40"/>
+      <c r="E120" s="27"/>
+      <c r="F120" s="28"/>
     </row>
     <row r="121" ht="30" spans="2:6">
-      <c r="B121" s="37"/>
-      <c r="C121" s="38">
+      <c r="B121" s="24"/>
+      <c r="C121" s="25">
         <v>3</v>
       </c>
-      <c r="D121" s="39" t="str">
+      <c r="D121" s="26" t="str">
         <f>D115</f>
         <v>管理されている/運用状態（学習データの管理は、完全に構造化され、自動化され、コンプライアンスに準拠しています）</v>
       </c>
-      <c r="E121" s="25"/>
-      <c r="F121" s="40"/>
+      <c r="E121" s="27"/>
+      <c r="F121" s="28"/>
     </row>
     <row r="122" ht="90" spans="2:6">
-      <c r="B122" s="37"/>
-      <c r="C122" s="38"/>
-      <c r="D122" s="39" t="s">
+      <c r="B122" s="24"/>
+      <c r="C122" s="25"/>
+      <c r="D122" s="26" t="s">
         <v>192</v>
       </c>
-      <c r="E122" s="25"/>
-      <c r="F122" s="40"/>
+      <c r="E122" s="27"/>
+      <c r="F122" s="28"/>
     </row>
     <row r="123" spans="2:6">
-      <c r="B123" s="41" t="s">
+      <c r="B123" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="C123" s="41"/>
-      <c r="D123" s="41"/>
-      <c r="E123" s="41"/>
-      <c r="F123" s="41"/>
+      <c r="C123" s="29"/>
+      <c r="D123" s="29"/>
+      <c r="E123" s="29"/>
+      <c r="F123" s="29"/>
     </row>
     <row r="124" spans="2:6">
-      <c r="B124" s="34" t="s">
+      <c r="B124" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="C124" s="34" t="s">
+      <c r="C124" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="D124" s="42" t="s">
+      <c r="D124" s="30" t="s">
         <v>193</v>
       </c>
-      <c r="E124" s="35" t="s">
+      <c r="E124" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="F124" s="36" t="s">
+      <c r="F124" s="23" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="125" ht="30" spans="2:6">
-      <c r="B125" s="37" t="s">
+      <c r="B125" s="24" t="s">
         <v>194</v>
       </c>
-      <c r="C125" s="38">
+      <c r="C125" s="25">
         <v>1</v>
       </c>
-      <c r="D125" s="39" t="s">
+      <c r="D125" s="26" t="s">
         <v>195</v>
       </c>
-      <c r="E125" s="25">
+      <c r="E125" s="27">
         <v>1</v>
       </c>
-      <c r="F125" s="40"/>
+      <c r="F125" s="28"/>
     </row>
     <row r="126" ht="75" spans="2:6">
-      <c r="B126" s="37"/>
-      <c r="C126" s="38"/>
-      <c r="D126" s="39" t="s">
+      <c r="B126" s="24"/>
+      <c r="C126" s="25"/>
+      <c r="D126" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="E126" s="25"/>
-      <c r="F126" s="40"/>
+      <c r="E126" s="27"/>
+      <c r="F126" s="28"/>
     </row>
     <row r="127" ht="30" spans="2:6">
-      <c r="B127" s="37"/>
-      <c r="C127" s="38">
+      <c r="B127" s="24"/>
+      <c r="C127" s="25">
         <v>2</v>
       </c>
-      <c r="D127" s="39" t="s">
+      <c r="D127" s="26" t="s">
         <v>197</v>
       </c>
-      <c r="E127" s="25"/>
-      <c r="F127" s="40"/>
+      <c r="E127" s="27"/>
+      <c r="F127" s="28"/>
     </row>
     <row r="128" ht="90" spans="2:6">
-      <c r="B128" s="37"/>
-      <c r="C128" s="38"/>
-      <c r="D128" s="39" t="s">
+      <c r="B128" s="24"/>
+      <c r="C128" s="25"/>
+      <c r="D128" s="26" t="s">
         <v>198</v>
       </c>
-      <c r="E128" s="25"/>
-      <c r="F128" s="40"/>
+      <c r="E128" s="27"/>
+      <c r="F128" s="28"/>
     </row>
     <row r="129" spans="2:6">
-      <c r="B129" s="37"/>
-      <c r="C129" s="38">
+      <c r="B129" s="24"/>
+      <c r="C129" s="25">
         <v>3</v>
       </c>
-      <c r="D129" s="39" t="s">
+      <c r="D129" s="26" t="s">
         <v>199</v>
       </c>
-      <c r="E129" s="25"/>
-      <c r="F129" s="40"/>
+      <c r="E129" s="27"/>
+      <c r="F129" s="28"/>
     </row>
     <row r="130" ht="90" spans="2:6">
-      <c r="B130" s="37"/>
-      <c r="C130" s="38"/>
-      <c r="D130" s="39" t="s">
+      <c r="B130" s="24"/>
+      <c r="C130" s="25"/>
+      <c r="D130" s="26" t="s">
         <v>200</v>
       </c>
-      <c r="E130" s="25"/>
-      <c r="F130" s="40"/>
+      <c r="E130" s="27"/>
+      <c r="F130" s="28"/>
     </row>
     <row r="131" ht="30" spans="2:6">
-      <c r="B131" s="37" t="s">
+      <c r="B131" s="24" t="s">
         <v>201</v>
       </c>
-      <c r="C131" s="38">
+      <c r="C131" s="25">
         <v>1</v>
       </c>
-      <c r="D131" s="39" t="str">
+      <c r="D131" s="26" t="str">
         <f>D125</f>
         <v>データの使用範囲と制限を明確に定義するプライバシー原則とポリシーを確立しています。</v>
       </c>
-      <c r="E131" s="25">
+      <c r="E131" s="27">
         <v>1</v>
       </c>
-      <c r="F131" s="40"/>
+      <c r="F131" s="28"/>
     </row>
     <row r="132" ht="75" spans="2:6">
-      <c r="B132" s="37"/>
-      <c r="C132" s="38"/>
-      <c r="D132" s="39" t="s">
+      <c r="B132" s="24"/>
+      <c r="C132" s="25"/>
+      <c r="D132" s="26" t="s">
         <v>202</v>
       </c>
-      <c r="E132" s="25"/>
-      <c r="F132" s="40"/>
+      <c r="E132" s="27"/>
+      <c r="F132" s="28"/>
     </row>
     <row r="133" ht="30" spans="2:6">
-      <c r="B133" s="37"/>
-      <c r="C133" s="38">
+      <c r="B133" s="24"/>
+      <c r="C133" s="25">
         <v>2</v>
       </c>
-      <c r="D133" s="39" t="str">
+      <c r="D133" s="26" t="str">
         <f>D127</f>
         <v>データの最小化と明確な目的の制限のために構造化されたプライバシー制御を実装しています。</v>
       </c>
-      <c r="E133" s="25"/>
-      <c r="F133" s="40"/>
+      <c r="E133" s="27"/>
+      <c r="F133" s="28"/>
     </row>
     <row r="134" ht="90" spans="2:6">
-      <c r="B134" s="37"/>
-      <c r="C134" s="38"/>
-      <c r="D134" s="39" t="s">
+      <c r="B134" s="24"/>
+      <c r="C134" s="25"/>
+      <c r="D134" s="26" t="s">
         <v>203</v>
       </c>
-      <c r="E134" s="25"/>
-      <c r="F134" s="40"/>
+      <c r="E134" s="27"/>
+      <c r="F134" s="28"/>
     </row>
     <row r="135" spans="2:6">
-      <c r="B135" s="37"/>
-      <c r="C135" s="38">
+      <c r="B135" s="24"/>
+      <c r="C135" s="25">
         <v>3</v>
       </c>
-      <c r="D135" s="39" t="str">
+      <c r="D135" s="26" t="str">
         <f>D129</f>
         <v>継続的なプライバシー改善が組織の文化とプロセスに定着しています。</v>
       </c>
-      <c r="E135" s="25"/>
-      <c r="F135" s="40"/>
+      <c r="E135" s="27"/>
+      <c r="F135" s="28"/>
     </row>
     <row r="136" ht="90" spans="2:6">
-      <c r="B136" s="37"/>
-      <c r="C136" s="38"/>
-      <c r="D136" s="39" t="s">
+      <c r="B136" s="24"/>
+      <c r="C136" s="25"/>
+      <c r="D136" s="26" t="s">
         <v>204</v>
       </c>
-      <c r="E136" s="25"/>
-      <c r="F136" s="40"/>
+      <c r="E136" s="27"/>
+      <c r="F136" s="28"/>
     </row>
     <row r="137" spans="2:6">
-      <c r="B137" s="34" t="s">
+      <c r="B137" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="C137" s="34" t="s">
+      <c r="C137" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="D137" s="42" t="s">
+      <c r="D137" s="30" t="s">
         <v>205</v>
       </c>
-      <c r="E137" s="35" t="s">
+      <c r="E137" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="F137" s="36" t="s">
+      <c r="F137" s="23" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="138" ht="30" spans="2:6">
-      <c r="B138" s="37" t="s">
+      <c r="B138" s="24" t="s">
         <v>206</v>
       </c>
-      <c r="C138" s="38">
+      <c r="C138" s="25">
         <v>1</v>
       </c>
-      <c r="D138" s="39" t="s">
+      <c r="D138" s="26" t="s">
         <v>207</v>
       </c>
-      <c r="E138" s="25">
+      <c r="E138" s="27">
         <v>1</v>
       </c>
-      <c r="F138" s="40"/>
+      <c r="F138" s="28"/>
     </row>
     <row r="139" ht="60" spans="2:6">
-      <c r="B139" s="37"/>
-      <c r="C139" s="38"/>
-      <c r="D139" s="24" t="s">
+      <c r="B139" s="24"/>
+      <c r="C139" s="25"/>
+      <c r="D139" s="32" t="s">
         <v>208</v>
       </c>
-      <c r="E139" s="25"/>
-      <c r="F139" s="40"/>
+      <c r="E139" s="27"/>
+      <c r="F139" s="28"/>
     </row>
     <row r="140" ht="30" spans="2:6">
-      <c r="B140" s="37"/>
-      <c r="C140" s="38">
+      <c r="B140" s="24"/>
+      <c r="C140" s="25">
         <v>2</v>
       </c>
-      <c r="D140" s="39" t="s">
+      <c r="D140" s="26" t="s">
         <v>209</v>
       </c>
-      <c r="E140" s="25"/>
-      <c r="F140" s="40"/>
+      <c r="E140" s="27"/>
+      <c r="F140" s="28"/>
     </row>
     <row r="141" ht="75" spans="2:6">
-      <c r="B141" s="37"/>
-      <c r="C141" s="38"/>
-      <c r="D141" s="24" t="s">
+      <c r="B141" s="24"/>
+      <c r="C141" s="25"/>
+      <c r="D141" s="32" t="s">
         <v>210</v>
       </c>
-      <c r="E141" s="25"/>
-      <c r="F141" s="40"/>
+      <c r="E141" s="27"/>
+      <c r="F141" s="28"/>
     </row>
     <row r="142" spans="2:6">
-      <c r="B142" s="37"/>
-      <c r="C142" s="38">
+      <c r="B142" s="24"/>
+      <c r="C142" s="25">
         <v>3</v>
       </c>
-      <c r="D142" s="39" t="s">
+      <c r="D142" s="26" t="s">
         <v>211</v>
       </c>
-      <c r="E142" s="25"/>
-      <c r="F142" s="40"/>
+      <c r="E142" s="27"/>
+      <c r="F142" s="28"/>
     </row>
     <row r="143" ht="60" spans="2:6">
-      <c r="B143" s="37"/>
-      <c r="C143" s="38"/>
-      <c r="D143" s="24" t="s">
+      <c r="B143" s="24"/>
+      <c r="C143" s="25"/>
+      <c r="D143" s="32" t="s">
         <v>212</v>
       </c>
-      <c r="E143" s="25"/>
-      <c r="F143" s="40"/>
+      <c r="E143" s="27"/>
+      <c r="F143" s="28"/>
     </row>
     <row r="144" ht="30" spans="2:6">
-      <c r="B144" s="37" t="s">
+      <c r="B144" s="24" t="s">
         <v>213</v>
       </c>
-      <c r="C144" s="38">
+      <c r="C144" s="25">
         <v>1</v>
       </c>
-      <c r="D144" s="39" t="str">
+      <c r="D144" s="26" t="str">
         <f>D138</f>
         <v>初期（プライバシーは、製品の発売後または苦情への対応時にのみ考慮されています）</v>
       </c>
-      <c r="E144" s="25">
+      <c r="E144" s="27">
         <v>1</v>
       </c>
-      <c r="F144" s="40"/>
+      <c r="F144" s="28"/>
     </row>
     <row r="145" ht="60" spans="2:6">
-      <c r="B145" s="37"/>
-      <c r="C145" s="38"/>
-      <c r="D145" s="24" t="s">
+      <c r="B145" s="24"/>
+      <c r="C145" s="25"/>
+      <c r="D145" s="32" t="s">
         <v>214</v>
       </c>
-      <c r="E145" s="25"/>
-      <c r="F145" s="40"/>
+      <c r="E145" s="27"/>
+      <c r="F145" s="28"/>
     </row>
     <row r="146" ht="30" spans="2:6">
-      <c r="B146" s="37"/>
-      <c r="C146" s="38">
+      <c r="B146" s="24"/>
+      <c r="C146" s="25">
         <v>2</v>
       </c>
-      <c r="D146" s="39" t="str">
+      <c r="D146" s="26" t="str">
         <f>D140</f>
         <v>定義済み（プライバシーの慣行はポリシーと割り当てられた責任によって正式に定められています）</v>
       </c>
-      <c r="E146" s="25"/>
-      <c r="F146" s="40"/>
+      <c r="E146" s="27"/>
+      <c r="F146" s="28"/>
     </row>
     <row r="147" ht="90" spans="2:6">
-      <c r="B147" s="37"/>
-      <c r="C147" s="38"/>
-      <c r="D147" s="24" t="s">
+      <c r="B147" s="24"/>
+      <c r="C147" s="25"/>
+      <c r="D147" s="32" t="s">
         <v>215</v>
       </c>
-      <c r="E147" s="25"/>
-      <c r="F147" s="40"/>
+      <c r="E147" s="27"/>
+      <c r="F147" s="28"/>
     </row>
     <row r="148" spans="2:6">
-      <c r="B148" s="37"/>
-      <c r="C148" s="38">
+      <c r="B148" s="24"/>
+      <c r="C148" s="25">
         <v>3</v>
       </c>
-      <c r="D148" s="39" t="str">
+      <c r="D148" s="26" t="str">
         <f>D142</f>
         <v>最適化済み（プライバシー制御は自動化・監視され、継続的に改善されています）</v>
       </c>
-      <c r="E148" s="25"/>
-      <c r="F148" s="40"/>
+      <c r="E148" s="27"/>
+      <c r="F148" s="28"/>
     </row>
     <row r="149" ht="75" spans="2:6">
-      <c r="B149" s="37"/>
-      <c r="C149" s="38"/>
-      <c r="D149" s="24" t="s">
+      <c r="B149" s="24"/>
+      <c r="C149" s="25"/>
+      <c r="D149" s="32" t="s">
         <v>216</v>
       </c>
-      <c r="E149" s="25"/>
-      <c r="F149" s="40"/>
+      <c r="E149" s="27"/>
+      <c r="F149" s="28"/>
     </row>
     <row r="150" spans="2:6">
-      <c r="B150" s="34" t="s">
+      <c r="B150" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="C150" s="34" t="s">
+      <c r="C150" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="D150" s="42" t="s">
+      <c r="D150" s="30" t="s">
         <v>217</v>
       </c>
-      <c r="E150" s="35" t="s">
+      <c r="E150" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="F150" s="36" t="s">
+      <c r="F150" s="23" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="151" ht="30" spans="2:6">
-      <c r="B151" s="37" t="s">
+      <c r="B151" s="24" t="s">
         <v>206</v>
       </c>
-      <c r="C151" s="38">
+      <c r="C151" s="25">
         <v>1</v>
       </c>
-      <c r="D151" s="39" t="s">
+      <c r="D151" s="26" t="s">
         <v>218</v>
       </c>
-      <c r="E151" s="25">
+      <c r="E151" s="27">
         <v>1</v>
       </c>
-      <c r="F151" s="40"/>
+      <c r="F151" s="28"/>
     </row>
     <row r="152" ht="45" spans="2:6">
-      <c r="B152" s="37"/>
-      <c r="C152" s="38"/>
-      <c r="D152" s="24" t="s">
+      <c r="B152" s="24"/>
+      <c r="C152" s="25"/>
+      <c r="D152" s="32" t="s">
         <v>219</v>
       </c>
-      <c r="E152" s="25"/>
-      <c r="F152" s="40"/>
+      <c r="E152" s="27"/>
+      <c r="F152" s="28"/>
     </row>
     <row r="153" ht="30" spans="2:6">
-      <c r="B153" s="37"/>
-      <c r="C153" s="38">
+      <c r="B153" s="24"/>
+      <c r="C153" s="25">
         <v>2</v>
       </c>
-      <c r="D153" s="39" t="s">
+      <c r="D153" s="26" t="s">
         <v>220</v>
       </c>
-      <c r="E153" s="25"/>
-      <c r="F153" s="40"/>
+      <c r="E153" s="27"/>
+      <c r="F153" s="28"/>
     </row>
     <row r="154" ht="60" spans="2:6">
-      <c r="B154" s="37"/>
-      <c r="C154" s="38"/>
-      <c r="D154" s="24" t="s">
+      <c r="B154" s="24"/>
+      <c r="C154" s="25"/>
+      <c r="D154" s="32" t="s">
         <v>221</v>
       </c>
-      <c r="E154" s="25"/>
-      <c r="F154" s="40"/>
+      <c r="E154" s="27"/>
+      <c r="F154" s="28"/>
     </row>
     <row r="155" ht="30" spans="2:6">
-      <c r="B155" s="37"/>
-      <c r="C155" s="38">
+      <c r="B155" s="24"/>
+      <c r="C155" s="25">
         <v>3</v>
       </c>
-      <c r="D155" s="39" t="s">
+      <c r="D155" s="26" t="s">
         <v>222</v>
       </c>
-      <c r="E155" s="25"/>
-      <c r="F155" s="40"/>
+      <c r="E155" s="27"/>
+      <c r="F155" s="28"/>
     </row>
     <row r="156" ht="60" spans="2:6">
-      <c r="B156" s="37"/>
-      <c r="C156" s="38"/>
-      <c r="D156" s="24" t="s">
+      <c r="B156" s="24"/>
+      <c r="C156" s="25"/>
+      <c r="D156" s="32" t="s">
         <v>223</v>
       </c>
-      <c r="E156" s="25"/>
-      <c r="F156" s="40"/>
+      <c r="E156" s="27"/>
+      <c r="F156" s="28"/>
     </row>
     <row r="157" ht="30" spans="2:6">
-      <c r="B157" s="37" t="s">
+      <c r="B157" s="24" t="s">
         <v>213</v>
       </c>
-      <c r="C157" s="38">
+      <c r="C157" s="25">
         <v>1</v>
       </c>
-      <c r="D157" s="39" t="str">
+      <c r="D157" s="26" t="str">
         <f>D151</f>
         <v>初期（ユーザー制御と透明性の仕組みは、限定的か、一貫性がないか、法的に必要な場合にのみ提供されています）</v>
       </c>
-      <c r="E157" s="25">
+      <c r="E157" s="27">
         <v>1</v>
       </c>
-      <c r="F157" s="40"/>
+      <c r="F157" s="28"/>
     </row>
     <row r="158" ht="60" spans="2:6">
-      <c r="B158" s="37"/>
-      <c r="C158" s="38"/>
-      <c r="D158" s="24" t="s">
+      <c r="B158" s="24"/>
+      <c r="C158" s="25"/>
+      <c r="D158" s="32" t="s">
         <v>224</v>
       </c>
-      <c r="E158" s="25"/>
-      <c r="F158" s="40"/>
+      <c r="E158" s="27"/>
+      <c r="F158" s="28"/>
     </row>
     <row r="159" ht="30" spans="2:6">
-      <c r="B159" s="37"/>
-      <c r="C159" s="38">
+      <c r="B159" s="24"/>
+      <c r="C159" s="25">
         <v>2</v>
       </c>
-      <c r="D159" s="39" t="str">
+      <c r="D159" s="26" t="str">
         <f>D153</f>
         <v>定義済み（ユーザー制御と開示慣行を標準化するためのポリシーとワークフローが確立されています）</v>
       </c>
-      <c r="E159" s="25"/>
-      <c r="F159" s="40"/>
+      <c r="E159" s="27"/>
+      <c r="F159" s="28"/>
     </row>
     <row r="160" ht="75" spans="2:6">
-      <c r="B160" s="37"/>
-      <c r="C160" s="38"/>
-      <c r="D160" s="24" t="s">
+      <c r="B160" s="24"/>
+      <c r="C160" s="25"/>
+      <c r="D160" s="32" t="s">
         <v>225</v>
       </c>
-      <c r="E160" s="25"/>
-      <c r="F160" s="40"/>
+      <c r="E160" s="27"/>
+      <c r="F160" s="28"/>
     </row>
     <row r="161" ht="30" spans="2:6">
-      <c r="B161" s="37"/>
-      <c r="C161" s="38">
+      <c r="B161" s="24"/>
+      <c r="C161" s="25">
         <v>3</v>
       </c>
-      <c r="D161" s="39" t="str">
+      <c r="D161" s="26" t="str">
         <f>D155</f>
         <v>最適化済み（透明性とユーザー制御は、デフォルトで組み込まれており、フィードバックと自動化を通じて継続的に改善されています）</v>
       </c>
-      <c r="E161" s="25"/>
-      <c r="F161" s="40"/>
+      <c r="E161" s="27"/>
+      <c r="F161" s="28"/>
     </row>
     <row r="162" ht="90" spans="2:6">
-      <c r="B162" s="37"/>
-      <c r="C162" s="38"/>
-      <c r="D162" s="24" t="s">
+      <c r="B162" s="24"/>
+      <c r="C162" s="25"/>
+      <c r="D162" s="32" t="s">
         <v>226</v>
       </c>
-      <c r="E162" s="25"/>
-      <c r="F162" s="40"/>
+      <c r="E162" s="27"/>
+      <c r="F162" s="28"/>
     </row>
     <row r="163" spans="2:6">
-      <c r="B163" s="41" t="s">
+      <c r="B163" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="C163" s="41"/>
-      <c r="D163" s="41"/>
-      <c r="E163" s="41"/>
-      <c r="F163" s="41"/>
+      <c r="C163" s="29"/>
+      <c r="D163" s="29"/>
+      <c r="E163" s="29"/>
+      <c r="F163" s="29"/>
     </row>
     <row r="164" spans="2:6">
-      <c r="B164" s="34" t="s">
+      <c r="B164" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="C164" s="34" t="s">
+      <c r="C164" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="D164" s="42" t="s">
+      <c r="D164" s="30" t="s">
         <v>227</v>
       </c>
-      <c r="E164" s="35" t="s">
+      <c r="E164" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="F164" s="36" t="s">
+      <c r="F164" s="23" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="165" spans="2:6">
-      <c r="B165" s="37" t="s">
+      <c r="B165" s="24" t="s">
         <v>228</v>
       </c>
-      <c r="C165" s="38">
+      <c r="C165" s="25">
         <v>1</v>
       </c>
-      <c r="D165" s="39" t="s">
+      <c r="D165" s="26" t="s">
         <v>229</v>
       </c>
-      <c r="E165" s="25">
+      <c r="E165" s="27">
         <v>1</v>
       </c>
-      <c r="F165" s="40"/>
+      <c r="F165" s="28"/>
     </row>
     <row r="166" ht="90" spans="2:6">
-      <c r="B166" s="37"/>
-      <c r="C166" s="38"/>
-      <c r="D166" s="39" t="s">
+      <c r="B166" s="24"/>
+      <c r="C166" s="25"/>
+      <c r="D166" s="26" t="s">
         <v>230</v>
       </c>
-      <c r="E166" s="25"/>
-      <c r="F166" s="40"/>
+      <c r="E166" s="27"/>
+      <c r="F166" s="28"/>
     </row>
     <row r="167" spans="2:6">
-      <c r="B167" s="37"/>
-      <c r="C167" s="38">
+      <c r="B167" s="24"/>
+      <c r="C167" s="25">
         <v>2</v>
       </c>
-      <c r="D167" s="39" t="s">
+      <c r="D167" s="26" t="s">
         <v>231</v>
       </c>
-      <c r="E167" s="25"/>
-      <c r="F167" s="40"/>
+      <c r="E167" s="27"/>
+      <c r="F167" s="28"/>
     </row>
     <row r="168" ht="105" spans="2:6">
-      <c r="B168" s="37"/>
-      <c r="C168" s="38"/>
-      <c r="D168" s="39" t="s">
+      <c r="B168" s="24"/>
+      <c r="C168" s="25"/>
+      <c r="D168" s="26" t="s">
         <v>232</v>
       </c>
-      <c r="E168" s="25"/>
-      <c r="F168" s="40"/>
+      <c r="E168" s="27"/>
+      <c r="F168" s="28"/>
     </row>
     <row r="169" spans="2:6">
-      <c r="B169" s="37"/>
-      <c r="C169" s="38">
+      <c r="B169" s="24"/>
+      <c r="C169" s="25">
         <v>3</v>
       </c>
-      <c r="D169" s="39" t="s">
+      <c r="D169" s="26" t="s">
         <v>233</v>
       </c>
-      <c r="E169" s="25"/>
-      <c r="F169" s="40"/>
+      <c r="E169" s="27"/>
+      <c r="F169" s="28"/>
     </row>
     <row r="170" ht="90" spans="2:6">
-      <c r="B170" s="37"/>
-      <c r="C170" s="38"/>
-      <c r="D170" s="39" t="s">
+      <c r="B170" s="24"/>
+      <c r="C170" s="25"/>
+      <c r="D170" s="26" t="s">
         <v>234</v>
       </c>
-      <c r="E170" s="25"/>
-      <c r="F170" s="40"/>
+      <c r="E170" s="27"/>
+      <c r="F170" s="28"/>
     </row>
     <row r="171" spans="2:6">
-      <c r="B171" s="37" t="s">
+      <c r="B171" s="24" t="s">
         <v>235</v>
       </c>
-      <c r="C171" s="38">
+      <c r="C171" s="25">
         <v>1</v>
       </c>
-      <c r="D171" s="39" t="str">
+      <c r="D171" s="26" t="str">
         <f>D165</f>
         <v>LLM 固有のリスクの初期特定</v>
       </c>
-      <c r="E171" s="25">
+      <c r="E171" s="27">
         <v>1</v>
       </c>
-      <c r="F171" s="40"/>
+      <c r="F171" s="28"/>
     </row>
     <row r="172" ht="105" spans="2:6">
-      <c r="B172" s="37"/>
-      <c r="C172" s="38"/>
-      <c r="D172" s="39" t="s">
+      <c r="B172" s="24"/>
+      <c r="C172" s="25"/>
+      <c r="D172" s="26" t="s">
         <v>236</v>
       </c>
-      <c r="E172" s="25"/>
-      <c r="F172" s="40"/>
+      <c r="E172" s="27"/>
+      <c r="F172" s="28"/>
     </row>
     <row r="173" spans="2:6">
-      <c r="B173" s="37"/>
-      <c r="C173" s="38">
+      <c r="B173" s="24"/>
+      <c r="C173" s="25">
         <v>2</v>
       </c>
-      <c r="D173" s="39" t="str">
+      <c r="D173" s="26" t="str">
         <f>D167</f>
         <v>集中化および標準化されたリスク管理</v>
       </c>
-      <c r="E173" s="25"/>
-      <c r="F173" s="40"/>
+      <c r="E173" s="27"/>
+      <c r="F173" s="28"/>
     </row>
     <row r="174" ht="90" spans="2:6">
-      <c r="B174" s="37"/>
-      <c r="C174" s="38"/>
-      <c r="D174" s="39" t="s">
+      <c r="B174" s="24"/>
+      <c r="C174" s="25"/>
+      <c r="D174" s="26" t="s">
         <v>237</v>
       </c>
-      <c r="E174" s="25"/>
-      <c r="F174" s="40"/>
+      <c r="E174" s="27"/>
+      <c r="F174" s="28"/>
     </row>
     <row r="175" spans="2:6">
-      <c r="B175" s="37"/>
-      <c r="C175" s="38">
+      <c r="B175" s="24"/>
+      <c r="C175" s="25">
         <v>3</v>
       </c>
-      <c r="D175" s="39" t="str">
+      <c r="D175" s="26" t="str">
         <f>D169</f>
         <v>自動化された能動的なリスク検出</v>
       </c>
-      <c r="E175" s="25"/>
-      <c r="F175" s="40"/>
+      <c r="E175" s="27"/>
+      <c r="F175" s="28"/>
     </row>
     <row r="176" ht="90" spans="2:6">
-      <c r="B176" s="37"/>
-      <c r="C176" s="38"/>
-      <c r="D176" s="39" t="s">
+      <c r="B176" s="24"/>
+      <c r="C176" s="25"/>
+      <c r="D176" s="26" t="s">
         <v>238</v>
       </c>
-      <c r="E176" s="25"/>
-      <c r="F176" s="40"/>
+      <c r="E176" s="27"/>
+      <c r="F176" s="28"/>
     </row>
     <row r="177" spans="2:6">
-      <c r="B177" s="34" t="s">
+      <c r="B177" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="C177" s="34" t="s">
+      <c r="C177" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="D177" s="42" t="s">
+      <c r="D177" s="30" t="s">
         <v>239</v>
       </c>
-      <c r="E177" s="35" t="s">
+      <c r="E177" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="F177" s="36" t="s">
+      <c r="F177" s="23" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="178" spans="2:6">
-      <c r="B178" s="37" t="s">
+      <c r="B178" s="24" t="s">
         <v>240</v>
       </c>
-      <c r="C178" s="38">
+      <c r="C178" s="25">
         <v>1</v>
       </c>
-      <c r="D178" s="39" t="s">
+      <c r="D178" s="26" t="s">
         <v>241</v>
       </c>
-      <c r="E178" s="25">
+      <c r="E178" s="27">
         <v>2</v>
       </c>
-      <c r="F178" s="40"/>
+      <c r="F178" s="28"/>
     </row>
     <row r="179" ht="60" spans="2:6">
-      <c r="B179" s="37"/>
-      <c r="C179" s="38"/>
-      <c r="D179" s="39" t="s">
+      <c r="B179" s="24"/>
+      <c r="C179" s="25"/>
+      <c r="D179" s="26" t="s">
         <v>242</v>
       </c>
-      <c r="E179" s="25"/>
-      <c r="F179" s="40"/>
+      <c r="E179" s="27"/>
+      <c r="F179" s="28"/>
     </row>
     <row r="180" spans="2:6">
-      <c r="B180" s="37"/>
-      <c r="C180" s="38">
+      <c r="B180" s="24"/>
+      <c r="C180" s="25">
         <v>2</v>
       </c>
-      <c r="D180" s="39" t="s">
+      <c r="D180" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="E180" s="25"/>
-      <c r="F180" s="40"/>
+      <c r="E180" s="27"/>
+      <c r="F180" s="28"/>
     </row>
     <row r="181" ht="75" spans="2:6">
-      <c r="B181" s="37"/>
-      <c r="C181" s="38"/>
-      <c r="D181" s="39" t="s">
+      <c r="B181" s="24"/>
+      <c r="C181" s="25"/>
+      <c r="D181" s="26" t="s">
         <v>244</v>
       </c>
-      <c r="E181" s="25"/>
-      <c r="F181" s="40"/>
+      <c r="E181" s="27"/>
+      <c r="F181" s="28"/>
     </row>
     <row r="182" spans="2:6">
-      <c r="B182" s="37"/>
-      <c r="C182" s="38">
+      <c r="B182" s="24"/>
+      <c r="C182" s="25">
         <v>3</v>
       </c>
-      <c r="D182" s="39" t="s">
+      <c r="D182" s="26" t="s">
         <v>245</v>
       </c>
-      <c r="E182" s="25"/>
-      <c r="F182" s="40"/>
+      <c r="E182" s="27"/>
+      <c r="F182" s="28"/>
     </row>
     <row r="183" ht="75" spans="2:6">
-      <c r="B183" s="37"/>
-      <c r="C183" s="38"/>
-      <c r="D183" s="39" t="s">
+      <c r="B183" s="24"/>
+      <c r="C183" s="25"/>
+      <c r="D183" s="26" t="s">
         <v>246</v>
       </c>
-      <c r="E183" s="25"/>
-      <c r="F183" s="40"/>
+      <c r="E183" s="27"/>
+      <c r="F183" s="28"/>
     </row>
     <row r="184" spans="2:6">
-      <c r="B184" s="37" t="s">
+      <c r="B184" s="24" t="s">
         <v>247</v>
       </c>
-      <c r="C184" s="38">
+      <c r="C184" s="25">
         <v>1</v>
       </c>
-      <c r="D184" s="39" t="str">
+      <c r="D184" s="26" t="str">
         <f>D178</f>
         <v>初期のセキュリティ慣行</v>
       </c>
-      <c r="E184" s="25">
+      <c r="E184" s="27">
         <v>1</v>
       </c>
-      <c r="F184" s="40"/>
+      <c r="F184" s="28"/>
     </row>
     <row r="185" ht="60" spans="2:6">
-      <c r="B185" s="37"/>
-      <c r="C185" s="38"/>
-      <c r="D185" s="39" t="s">
+      <c r="B185" s="24"/>
+      <c r="C185" s="25"/>
+      <c r="D185" s="26" t="s">
         <v>248</v>
       </c>
-      <c r="E185" s="25"/>
-      <c r="F185" s="40"/>
+      <c r="E185" s="27"/>
+      <c r="F185" s="28"/>
     </row>
     <row r="186" spans="2:6">
-      <c r="B186" s="37"/>
-      <c r="C186" s="38">
+      <c r="B186" s="24"/>
+      <c r="C186" s="25">
         <v>2</v>
       </c>
-      <c r="D186" s="39" t="str">
+      <c r="D186" s="26" t="str">
         <f>D180</f>
         <v>標準化されたデプロイメント保護策</v>
       </c>
-      <c r="E186" s="25"/>
-      <c r="F186" s="40"/>
+      <c r="E186" s="27"/>
+      <c r="F186" s="28"/>
     </row>
     <row r="187" ht="75" spans="2:6">
-      <c r="B187" s="37"/>
-      <c r="C187" s="38"/>
-      <c r="D187" s="39" t="s">
+      <c r="B187" s="24"/>
+      <c r="C187" s="25"/>
+      <c r="D187" s="26" t="s">
         <v>249</v>
       </c>
-      <c r="E187" s="25"/>
-      <c r="F187" s="40"/>
+      <c r="E187" s="27"/>
+      <c r="F187" s="28"/>
     </row>
     <row r="188" spans="2:6">
-      <c r="B188" s="37"/>
-      <c r="C188" s="38">
+      <c r="B188" s="24"/>
+      <c r="C188" s="25">
         <v>3</v>
       </c>
-      <c r="D188" s="39" t="str">
+      <c r="D188" s="26" t="str">
         <f>D182</f>
         <v>高度で能動的な防御</v>
       </c>
-      <c r="E188" s="25"/>
-      <c r="F188" s="40"/>
+      <c r="E188" s="27"/>
+      <c r="F188" s="28"/>
     </row>
     <row r="189" ht="75" spans="2:6">
-      <c r="B189" s="37"/>
-      <c r="C189" s="38"/>
-      <c r="D189" s="39" t="s">
+      <c r="B189" s="24"/>
+      <c r="C189" s="25"/>
+      <c r="D189" s="26" t="s">
         <v>250</v>
       </c>
-      <c r="E189" s="25"/>
-      <c r="F189" s="40"/>
+      <c r="E189" s="27"/>
+      <c r="F189" s="28"/>
     </row>
     <row r="190" spans="2:6">
-      <c r="B190" s="34" t="s">
+      <c r="B190" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="C190" s="34" t="s">
+      <c r="C190" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="D190" s="42" t="s">
+      <c r="D190" s="30" t="s">
         <v>251</v>
       </c>
-      <c r="E190" s="35" t="s">
+      <c r="E190" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="F190" s="36" t="s">
+      <c r="F190" s="23" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="191" spans="2:6">
-      <c r="B191" s="37" t="s">
+      <c r="B191" s="24" t="s">
         <v>252</v>
       </c>
-      <c r="C191" s="38">
+      <c r="C191" s="25">
         <v>1</v>
       </c>
-      <c r="D191" s="39" t="s">
+      <c r="D191" s="26" t="s">
         <v>253</v>
       </c>
-      <c r="E191" s="25">
+      <c r="E191" s="27">
         <v>2</v>
       </c>
-      <c r="F191" s="40"/>
+      <c r="F191" s="28"/>
     </row>
     <row r="192" ht="90" spans="2:6">
-      <c r="B192" s="37"/>
-      <c r="C192" s="38"/>
-      <c r="D192" s="39" t="s">
+      <c r="B192" s="24"/>
+      <c r="C192" s="25"/>
+      <c r="D192" s="26" t="s">
         <v>254</v>
       </c>
-      <c r="E192" s="25"/>
-      <c r="F192" s="40"/>
+      <c r="E192" s="27"/>
+      <c r="F192" s="28"/>
     </row>
     <row r="193" spans="2:6">
-      <c r="B193" s="37"/>
-      <c r="C193" s="38">
+      <c r="B193" s="24"/>
+      <c r="C193" s="25">
         <v>2</v>
       </c>
-      <c r="D193" s="39" t="s">
+      <c r="D193" s="26" t="s">
         <v>255</v>
       </c>
-      <c r="E193" s="25"/>
-      <c r="F193" s="40"/>
+      <c r="E193" s="27"/>
+      <c r="F193" s="28"/>
     </row>
     <row r="194" ht="90" spans="2:6">
-      <c r="B194" s="37"/>
-      <c r="C194" s="38"/>
-      <c r="D194" s="39" t="s">
+      <c r="B194" s="24"/>
+      <c r="C194" s="25"/>
+      <c r="D194" s="26" t="s">
         <v>256</v>
       </c>
-      <c r="E194" s="25"/>
-      <c r="F194" s="40"/>
+      <c r="E194" s="27"/>
+      <c r="F194" s="28"/>
     </row>
     <row r="195" spans="2:6">
-      <c r="B195" s="37"/>
-      <c r="C195" s="38">
+      <c r="B195" s="24"/>
+      <c r="C195" s="25">
         <v>3</v>
       </c>
-      <c r="D195" s="39" t="s">
+      <c r="D195" s="26" t="s">
         <v>257</v>
       </c>
-      <c r="E195" s="25"/>
-      <c r="F195" s="40"/>
+      <c r="E195" s="27"/>
+      <c r="F195" s="28"/>
     </row>
     <row r="196" ht="105" spans="2:6">
-      <c r="B196" s="37"/>
-      <c r="C196" s="38"/>
-      <c r="D196" s="39" t="s">
+      <c r="B196" s="24"/>
+      <c r="C196" s="25"/>
+      <c r="D196" s="26" t="s">
         <v>258</v>
       </c>
-      <c r="E196" s="25"/>
-      <c r="F196" s="40"/>
+      <c r="E196" s="27"/>
+      <c r="F196" s="28"/>
     </row>
     <row r="197" spans="2:6">
-      <c r="B197" s="37" t="s">
+      <c r="B197" s="24" t="s">
         <v>259</v>
       </c>
-      <c r="C197" s="38">
+      <c r="C197" s="25">
         <v>1</v>
       </c>
-      <c r="D197" s="39" t="str">
+      <c r="D197" s="26" t="str">
         <f>D191</f>
         <v>要件のベースライン文書化</v>
       </c>
-      <c r="E197" s="25">
+      <c r="E197" s="27">
         <v>1</v>
       </c>
-      <c r="F197" s="40"/>
+      <c r="F197" s="28"/>
     </row>
     <row r="198" ht="90" spans="2:6">
-      <c r="B198" s="37"/>
-      <c r="C198" s="38"/>
-      <c r="D198" s="39" t="s">
+      <c r="B198" s="24"/>
+      <c r="C198" s="25"/>
+      <c r="D198" s="26" t="s">
         <v>260</v>
       </c>
-      <c r="E198" s="25"/>
-      <c r="F198" s="40"/>
+      <c r="E198" s="27"/>
+      <c r="F198" s="28"/>
     </row>
     <row r="199" spans="2:6">
-      <c r="B199" s="37"/>
-      <c r="C199" s="38">
+      <c r="B199" s="24"/>
+      <c r="C199" s="25">
         <v>2</v>
       </c>
-      <c r="D199" s="39" t="str">
+      <c r="D199" s="26" t="str">
         <f>D193</f>
         <v>標準化された実装と検証</v>
       </c>
-      <c r="E199" s="25"/>
-      <c r="F199" s="40"/>
+      <c r="E199" s="27"/>
+      <c r="F199" s="28"/>
     </row>
     <row r="200" ht="90" spans="2:6">
-      <c r="B200" s="37"/>
-      <c r="C200" s="38"/>
-      <c r="D200" s="39" t="s">
+      <c r="B200" s="24"/>
+      <c r="C200" s="25"/>
+      <c r="D200" s="26" t="s">
         <v>261</v>
       </c>
-      <c r="E200" s="25"/>
-      <c r="F200" s="40"/>
+      <c r="E200" s="27"/>
+      <c r="F200" s="28"/>
     </row>
     <row r="201" spans="2:6">
-      <c r="B201" s="37"/>
-      <c r="C201" s="38">
+      <c r="B201" s="24"/>
+      <c r="C201" s="25">
         <v>3</v>
       </c>
-      <c r="D201" s="39" t="str">
+      <c r="D201" s="26" t="str">
         <f>D195</f>
         <v>自動化された継続的なコンプライアンス保証</v>
       </c>
-      <c r="E201" s="25"/>
-      <c r="F201" s="40"/>
+      <c r="E201" s="27"/>
+      <c r="F201" s="28"/>
     </row>
     <row r="202" spans="2:6">
-      <c r="B202" s="37"/>
-      <c r="C202" s="38"/>
-      <c r="D202" s="39" t="s">
+      <c r="B202" s="24"/>
+      <c r="C202" s="25"/>
+      <c r="D202" s="26" t="s">
         <v>262</v>
       </c>
-      <c r="E202" s="25"/>
-      <c r="F202" s="40"/>
+      <c r="E202" s="27"/>
+      <c r="F202" s="28"/>
     </row>
     <row r="203" spans="2:6">
-      <c r="B203" s="41" t="s">
+      <c r="B203" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="C203" s="41"/>
-      <c r="D203" s="41"/>
-      <c r="E203" s="41"/>
-      <c r="F203" s="41"/>
+      <c r="C203" s="29"/>
+      <c r="D203" s="29"/>
+      <c r="E203" s="29"/>
+      <c r="F203" s="29"/>
     </row>
     <row r="204" spans="2:6">
-      <c r="B204" s="34" t="s">
+      <c r="B204" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="C204" s="34" t="s">
+      <c r="C204" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="D204" s="42" t="s">
+      <c r="D204" s="30" t="s">
         <v>263</v>
       </c>
-      <c r="E204" s="35" t="s">
+      <c r="E204" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="F204" s="36" t="s">
+      <c r="F204" s="23" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="205" spans="2:6">
-      <c r="B205" s="37" t="s">
+      <c r="B205" s="24" t="s">
         <v>264</v>
       </c>
-      <c r="C205" s="38">
+      <c r="C205" s="25">
         <v>1</v>
       </c>
-      <c r="D205" s="39" t="s">
+      <c r="D205" s="26" t="s">
         <v>265</v>
       </c>
-      <c r="E205" s="25">
+      <c r="E205" s="27">
         <v>2</v>
       </c>
-      <c r="F205" s="40"/>
+      <c r="F205" s="28"/>
     </row>
     <row r="206" ht="60" spans="2:6">
-      <c r="B206" s="37"/>
-      <c r="C206" s="38"/>
-      <c r="D206" s="39" t="s">
+      <c r="B206" s="24"/>
+      <c r="C206" s="25"/>
+      <c r="D206" s="26" t="s">
         <v>266</v>
       </c>
-      <c r="E206" s="25"/>
-      <c r="F206" s="40"/>
+      <c r="E206" s="27"/>
+      <c r="F206" s="28"/>
     </row>
     <row r="207" spans="2:6">
-      <c r="B207" s="37"/>
-      <c r="C207" s="38">
+      <c r="B207" s="24"/>
+      <c r="C207" s="25">
         <v>2</v>
       </c>
-      <c r="D207" s="39" t="s">
+      <c r="D207" s="26" t="s">
         <v>267</v>
       </c>
-      <c r="E207" s="25"/>
-      <c r="F207" s="40"/>
+      <c r="E207" s="27"/>
+      <c r="F207" s="28"/>
     </row>
     <row r="208" ht="45" spans="2:6">
-      <c r="B208" s="37"/>
-      <c r="C208" s="38"/>
-      <c r="D208" s="39" t="s">
+      <c r="B208" s="24"/>
+      <c r="C208" s="25"/>
+      <c r="D208" s="26" t="s">
         <v>268</v>
       </c>
-      <c r="E208" s="25"/>
-      <c r="F208" s="40"/>
+      <c r="E208" s="27"/>
+      <c r="F208" s="28"/>
     </row>
     <row r="209" spans="2:6">
-      <c r="B209" s="37"/>
-      <c r="C209" s="38">
+      <c r="B209" s="24"/>
+      <c r="C209" s="25">
         <v>3</v>
       </c>
-      <c r="D209" s="39" t="s">
+      <c r="D209" s="26" t="s">
         <v>269</v>
       </c>
-      <c r="E209" s="25"/>
-      <c r="F209" s="40"/>
+      <c r="E209" s="27"/>
+      <c r="F209" s="28"/>
     </row>
     <row r="210" ht="45" spans="2:6">
-      <c r="B210" s="37"/>
-      <c r="C210" s="38"/>
-      <c r="D210" s="39" t="s">
+      <c r="B210" s="24"/>
+      <c r="C210" s="25"/>
+      <c r="D210" s="26" t="s">
         <v>270</v>
       </c>
-      <c r="E210" s="25"/>
-      <c r="F210" s="40"/>
+      <c r="E210" s="27"/>
+      <c r="F210" s="28"/>
     </row>
     <row r="211" spans="2:6">
-      <c r="B211" s="37" t="s">
+      <c r="B211" s="24" t="s">
         <v>271</v>
       </c>
-      <c r="C211" s="38">
+      <c r="C211" s="25">
         <v>1</v>
       </c>
-      <c r="D211" s="39" t="str">
+      <c r="D211" s="26" t="str">
         <f>D205</f>
         <v>Lv.1</v>
       </c>
-      <c r="E211" s="25">
+      <c r="E211" s="27">
         <v>1</v>
       </c>
-      <c r="F211" s="40"/>
+      <c r="F211" s="28"/>
     </row>
     <row r="212" ht="45" spans="2:6">
-      <c r="B212" s="37"/>
-      <c r="C212" s="38"/>
-      <c r="D212" s="39" t="s">
+      <c r="B212" s="24"/>
+      <c r="C212" s="25"/>
+      <c r="D212" s="26" t="s">
         <v>272</v>
       </c>
-      <c r="E212" s="25"/>
-      <c r="F212" s="40"/>
+      <c r="E212" s="27"/>
+      <c r="F212" s="28"/>
     </row>
     <row r="213" spans="2:6">
-      <c r="B213" s="37"/>
-      <c r="C213" s="38">
+      <c r="B213" s="24"/>
+      <c r="C213" s="25">
         <v>2</v>
       </c>
-      <c r="D213" s="39" t="str">
+      <c r="D213" s="26" t="str">
         <f>D207</f>
         <v>Lv.2</v>
       </c>
-      <c r="E213" s="25"/>
-      <c r="F213" s="40"/>
+      <c r="E213" s="27"/>
+      <c r="F213" s="28"/>
     </row>
     <row r="214" ht="60" spans="2:6">
-      <c r="B214" s="37"/>
-      <c r="C214" s="38"/>
-      <c r="D214" s="39" t="s">
+      <c r="B214" s="24"/>
+      <c r="C214" s="25"/>
+      <c r="D214" s="26" t="s">
         <v>273</v>
       </c>
-      <c r="E214" s="25"/>
-      <c r="F214" s="40"/>
+      <c r="E214" s="27"/>
+      <c r="F214" s="28"/>
     </row>
     <row r="215" spans="2:6">
-      <c r="B215" s="37"/>
-      <c r="C215" s="38">
+      <c r="B215" s="24"/>
+      <c r="C215" s="25">
         <v>3</v>
       </c>
-      <c r="D215" s="39" t="str">
+      <c r="D215" s="26" t="str">
         <f>D209</f>
         <v>Lv.3</v>
       </c>
-      <c r="E215" s="25"/>
-      <c r="F215" s="40"/>
+      <c r="E215" s="27"/>
+      <c r="F215" s="28"/>
     </row>
     <row r="216" ht="60" spans="2:6">
-      <c r="B216" s="37"/>
-      <c r="C216" s="38"/>
-      <c r="D216" s="39" t="s">
+      <c r="B216" s="24"/>
+      <c r="C216" s="25"/>
+      <c r="D216" s="26" t="s">
         <v>274</v>
       </c>
-      <c r="E216" s="25"/>
-      <c r="F216" s="40"/>
+      <c r="E216" s="27"/>
+      <c r="F216" s="28"/>
     </row>
     <row r="217" spans="2:6">
-      <c r="B217" s="34" t="s">
+      <c r="B217" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="C217" s="34" t="s">
+      <c r="C217" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="D217" s="42" t="s">
+      <c r="D217" s="30" t="s">
         <v>275</v>
       </c>
-      <c r="E217" s="35" t="s">
+      <c r="E217" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="F217" s="36" t="s">
+      <c r="F217" s="23" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="218" spans="2:6">
-      <c r="B218" s="37" t="s">
+      <c r="B218" s="24" t="s">
         <v>264</v>
       </c>
-      <c r="C218" s="38">
+      <c r="C218" s="25">
         <v>1</v>
       </c>
-      <c r="D218" s="39" t="s">
+      <c r="D218" s="26" t="s">
         <v>265</v>
       </c>
-      <c r="E218" s="25">
+      <c r="E218" s="27">
         <v>1</v>
       </c>
-      <c r="F218" s="40"/>
+      <c r="F218" s="28"/>
     </row>
     <row r="219" ht="45" spans="2:6">
-      <c r="B219" s="37"/>
-      <c r="C219" s="38"/>
-      <c r="D219" s="39" t="s">
+      <c r="B219" s="24"/>
+      <c r="C219" s="25"/>
+      <c r="D219" s="26" t="s">
         <v>276</v>
       </c>
-      <c r="E219" s="25"/>
-      <c r="F219" s="40"/>
+      <c r="E219" s="27"/>
+      <c r="F219" s="28"/>
     </row>
     <row r="220" spans="2:6">
-      <c r="B220" s="37"/>
-      <c r="C220" s="38">
+      <c r="B220" s="24"/>
+      <c r="C220" s="25">
         <v>2</v>
       </c>
-      <c r="D220" s="39" t="s">
+      <c r="D220" s="26" t="s">
         <v>267</v>
       </c>
-      <c r="E220" s="25"/>
-      <c r="F220" s="40"/>
+      <c r="E220" s="27"/>
+      <c r="F220" s="28"/>
     </row>
     <row r="221" ht="45" spans="2:6">
-      <c r="B221" s="37"/>
-      <c r="C221" s="38"/>
-      <c r="D221" s="39" t="s">
+      <c r="B221" s="24"/>
+      <c r="C221" s="25"/>
+      <c r="D221" s="26" t="s">
         <v>277</v>
       </c>
-      <c r="E221" s="25"/>
-      <c r="F221" s="40"/>
+      <c r="E221" s="27"/>
+      <c r="F221" s="28"/>
     </row>
     <row r="222" spans="2:6">
-      <c r="B222" s="37"/>
-      <c r="C222" s="38">
+      <c r="B222" s="24"/>
+      <c r="C222" s="25">
         <v>3</v>
       </c>
-      <c r="D222" s="39" t="s">
+      <c r="D222" s="26" t="s">
         <v>269</v>
       </c>
-      <c r="E222" s="25"/>
-      <c r="F222" s="40"/>
+      <c r="E222" s="27"/>
+      <c r="F222" s="28"/>
     </row>
     <row r="223" ht="45" spans="2:6">
-      <c r="B223" s="37"/>
-      <c r="C223" s="38"/>
-      <c r="D223" s="39" t="s">
+      <c r="B223" s="24"/>
+      <c r="C223" s="25"/>
+      <c r="D223" s="26" t="s">
         <v>278</v>
       </c>
-      <c r="E223" s="25"/>
-      <c r="F223" s="40"/>
+      <c r="E223" s="27"/>
+      <c r="F223" s="28"/>
     </row>
     <row r="224" spans="2:6">
-      <c r="B224" s="37" t="s">
+      <c r="B224" s="24" t="s">
         <v>271</v>
       </c>
-      <c r="C224" s="38">
+      <c r="C224" s="25">
         <v>1</v>
       </c>
-      <c r="D224" s="39" t="str">
+      <c r="D224" s="26" t="str">
         <f>D218</f>
         <v>Lv.1</v>
       </c>
-      <c r="E224" s="25">
+      <c r="E224" s="27">
         <v>1</v>
       </c>
-      <c r="F224" s="40"/>
+      <c r="F224" s="28"/>
     </row>
     <row r="225" ht="60" spans="2:6">
-      <c r="B225" s="37"/>
-      <c r="C225" s="38"/>
-      <c r="D225" s="39" t="s">
+      <c r="B225" s="24"/>
+      <c r="C225" s="25"/>
+      <c r="D225" s="26" t="s">
         <v>279</v>
       </c>
-      <c r="E225" s="25"/>
-      <c r="F225" s="40"/>
+      <c r="E225" s="27"/>
+      <c r="F225" s="28"/>
     </row>
     <row r="226" spans="2:6">
-      <c r="B226" s="37"/>
-      <c r="C226" s="38">
+      <c r="B226" s="24"/>
+      <c r="C226" s="25">
         <v>2</v>
       </c>
-      <c r="D226" s="39" t="str">
+      <c r="D226" s="26" t="str">
         <f>D220</f>
         <v>Lv.2</v>
       </c>
-      <c r="E226" s="25"/>
-      <c r="F226" s="40"/>
+      <c r="E226" s="27"/>
+      <c r="F226" s="28"/>
     </row>
     <row r="227" ht="45" spans="2:6">
-      <c r="B227" s="37"/>
-      <c r="C227" s="38"/>
-      <c r="D227" s="39" t="s">
+      <c r="B227" s="24"/>
+      <c r="C227" s="25"/>
+      <c r="D227" s="26" t="s">
         <v>280</v>
       </c>
-      <c r="E227" s="25"/>
-      <c r="F227" s="40"/>
+      <c r="E227" s="27"/>
+      <c r="F227" s="28"/>
     </row>
     <row r="228" spans="2:6">
-      <c r="B228" s="37"/>
-      <c r="C228" s="38">
+      <c r="B228" s="24"/>
+      <c r="C228" s="25">
         <v>3</v>
       </c>
-      <c r="D228" s="39" t="str">
+      <c r="D228" s="26" t="str">
         <f>D222</f>
         <v>Lv.3</v>
       </c>
-      <c r="E228" s="25"/>
-      <c r="F228" s="40"/>
+      <c r="E228" s="27"/>
+      <c r="F228" s="28"/>
     </row>
     <row r="229" ht="60" spans="2:6">
-      <c r="B229" s="37"/>
-      <c r="C229" s="38"/>
-      <c r="D229" s="39" t="s">
+      <c r="B229" s="24"/>
+      <c r="C229" s="25"/>
+      <c r="D229" s="26" t="s">
         <v>281</v>
       </c>
-      <c r="E229" s="25"/>
-      <c r="F229" s="40"/>
+      <c r="E229" s="27"/>
+      <c r="F229" s="28"/>
     </row>
     <row r="230" spans="2:6">
-      <c r="B230" s="34" t="s">
+      <c r="B230" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="C230" s="34" t="s">
+      <c r="C230" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="D230" s="42" t="s">
+      <c r="D230" s="30" t="s">
         <v>282</v>
       </c>
-      <c r="E230" s="35" t="s">
+      <c r="E230" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="F230" s="36" t="s">
+      <c r="F230" s="23" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="231" spans="2:6">
-      <c r="B231" s="37" t="s">
+      <c r="B231" s="24" t="s">
         <v>264</v>
       </c>
-      <c r="C231" s="38">
+      <c r="C231" s="25">
         <v>1</v>
       </c>
-      <c r="D231" s="39" t="s">
+      <c r="D231" s="26" t="s">
         <v>265</v>
       </c>
-      <c r="E231" s="25">
+      <c r="E231" s="27">
         <v>1</v>
       </c>
-      <c r="F231" s="40"/>
+      <c r="F231" s="28"/>
     </row>
     <row r="232" ht="45" spans="2:6">
-      <c r="B232" s="37"/>
-      <c r="C232" s="38"/>
-      <c r="D232" s="39" t="s">
+      <c r="B232" s="24"/>
+      <c r="C232" s="25"/>
+      <c r="D232" s="26" t="s">
         <v>283</v>
       </c>
-      <c r="E232" s="25"/>
-      <c r="F232" s="40"/>
+      <c r="E232" s="27"/>
+      <c r="F232" s="28"/>
     </row>
     <row r="233" spans="2:6">
-      <c r="B233" s="37"/>
-      <c r="C233" s="38">
+      <c r="B233" s="24"/>
+      <c r="C233" s="25">
         <v>2</v>
       </c>
-      <c r="D233" s="39" t="s">
+      <c r="D233" s="26" t="s">
         <v>267</v>
       </c>
-      <c r="E233" s="25"/>
-      <c r="F233" s="40"/>
+      <c r="E233" s="27"/>
+      <c r="F233" s="28"/>
     </row>
     <row r="234" ht="45" spans="2:6">
-      <c r="B234" s="37"/>
-      <c r="C234" s="38"/>
-      <c r="D234" s="39" t="s">
+      <c r="B234" s="24"/>
+      <c r="C234" s="25"/>
+      <c r="D234" s="26" t="s">
         <v>284</v>
       </c>
-      <c r="E234" s="25"/>
-      <c r="F234" s="40"/>
+      <c r="E234" s="27"/>
+      <c r="F234" s="28"/>
     </row>
     <row r="235" spans="2:6">
-      <c r="B235" s="37"/>
-      <c r="C235" s="38">
+      <c r="B235" s="24"/>
+      <c r="C235" s="25">
         <v>3</v>
       </c>
-      <c r="D235" s="39" t="s">
+      <c r="D235" s="26" t="s">
         <v>269</v>
       </c>
-      <c r="E235" s="25"/>
-      <c r="F235" s="40"/>
+      <c r="E235" s="27"/>
+      <c r="F235" s="28"/>
     </row>
     <row r="236" ht="45" spans="2:6">
-      <c r="B236" s="37"/>
-      <c r="C236" s="38"/>
-      <c r="D236" s="39" t="s">
+      <c r="B236" s="24"/>
+      <c r="C236" s="25"/>
+      <c r="D236" s="26" t="s">
         <v>285</v>
       </c>
-      <c r="E236" s="25"/>
-      <c r="F236" s="40"/>
+      <c r="E236" s="27"/>
+      <c r="F236" s="28"/>
     </row>
     <row r="237" spans="2:6">
-      <c r="B237" s="37" t="s">
+      <c r="B237" s="24" t="s">
         <v>271</v>
       </c>
-      <c r="C237" s="38">
+      <c r="C237" s="25">
         <v>1</v>
       </c>
-      <c r="D237" s="39" t="str">
+      <c r="D237" s="26" t="str">
         <f>D231</f>
         <v>Lv.1</v>
       </c>
-      <c r="E237" s="25">
+      <c r="E237" s="27">
         <v>2</v>
       </c>
-      <c r="F237" s="40"/>
+      <c r="F237" s="28"/>
     </row>
     <row r="238" ht="30" spans="2:6">
-      <c r="B238" s="37"/>
-      <c r="C238" s="38"/>
-      <c r="D238" s="39" t="s">
+      <c r="B238" s="24"/>
+      <c r="C238" s="25"/>
+      <c r="D238" s="26" t="s">
         <v>286</v>
       </c>
-      <c r="E238" s="25"/>
-      <c r="F238" s="40"/>
+      <c r="E238" s="27"/>
+      <c r="F238" s="28"/>
     </row>
     <row r="239" spans="2:6">
-      <c r="B239" s="37"/>
-      <c r="C239" s="38">
+      <c r="B239" s="24"/>
+      <c r="C239" s="25">
         <v>2</v>
       </c>
-      <c r="D239" s="39" t="str">
+      <c r="D239" s="26" t="str">
         <f>D233</f>
         <v>Lv.2</v>
       </c>
-      <c r="E239" s="25"/>
-      <c r="F239" s="40"/>
+      <c r="E239" s="27"/>
+      <c r="F239" s="28"/>
     </row>
     <row r="240" ht="45" spans="2:6">
-      <c r="B240" s="37"/>
-      <c r="C240" s="38"/>
-      <c r="D240" s="39" t="s">
+      <c r="B240" s="24"/>
+      <c r="C240" s="25"/>
+      <c r="D240" s="26" t="s">
         <v>287</v>
       </c>
-      <c r="E240" s="25"/>
-      <c r="F240" s="40"/>
+      <c r="E240" s="27"/>
+      <c r="F240" s="28"/>
     </row>
     <row r="241" spans="2:6">
-      <c r="B241" s="37"/>
-      <c r="C241" s="38">
+      <c r="B241" s="24"/>
+      <c r="C241" s="25">
         <v>3</v>
       </c>
-      <c r="D241" s="39" t="str">
+      <c r="D241" s="26" t="str">
         <f>D235</f>
         <v>Lv.3</v>
       </c>
-      <c r="E241" s="25"/>
-      <c r="F241" s="40"/>
+      <c r="E241" s="27"/>
+      <c r="F241" s="28"/>
     </row>
     <row r="242" ht="60" spans="2:6">
-      <c r="B242" s="37"/>
-      <c r="C242" s="38"/>
-      <c r="D242" s="39" t="s">
+      <c r="B242" s="24"/>
+      <c r="C242" s="25"/>
+      <c r="D242" s="26" t="s">
         <v>288</v>
       </c>
-      <c r="E242" s="25"/>
-      <c r="F242" s="40"/>
+      <c r="E242" s="27"/>
+      <c r="F242" s="28"/>
     </row>
     <row r="243" spans="2:6">
-      <c r="B243" s="41" t="s">
+      <c r="B243" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="C243" s="41"/>
-      <c r="D243" s="41"/>
-      <c r="E243" s="41"/>
-      <c r="F243" s="41"/>
+      <c r="C243" s="29"/>
+      <c r="D243" s="29"/>
+      <c r="E243" s="29"/>
+      <c r="F243" s="29"/>
     </row>
     <row r="244" spans="2:6">
-      <c r="B244" s="34" t="s">
+      <c r="B244" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="C244" s="34" t="s">
+      <c r="C244" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="D244" s="42" t="s">
+      <c r="D244" s="30" t="s">
         <v>289</v>
       </c>
-      <c r="E244" s="35" t="s">
+      <c r="E244" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="F244" s="36" t="s">
+      <c r="F244" s="23" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="245" spans="2:6">
-      <c r="B245" s="37" t="s">
+      <c r="B245" s="24" t="s">
         <v>290</v>
       </c>
-      <c r="C245" s="38">
+      <c r="C245" s="25">
         <v>1</v>
       </c>
-      <c r="D245" s="39" t="s">
+      <c r="D245" s="26" t="s">
         <v>291</v>
       </c>
-      <c r="E245" s="25">
+      <c r="E245" s="27">
         <v>1</v>
       </c>
-      <c r="F245" s="40"/>
+      <c r="F245" s="28"/>
     </row>
     <row r="246" ht="60" spans="2:6">
-      <c r="B246" s="37"/>
-      <c r="C246" s="38"/>
-      <c r="D246" s="24" t="s">
+      <c r="B246" s="24"/>
+      <c r="C246" s="25"/>
+      <c r="D246" s="32" t="s">
         <v>292</v>
       </c>
-      <c r="E246" s="25"/>
-      <c r="F246" s="40"/>
+      <c r="E246" s="27"/>
+      <c r="F246" s="28"/>
     </row>
     <row r="247" spans="2:6">
-      <c r="B247" s="37"/>
-      <c r="C247" s="38">
+      <c r="B247" s="24"/>
+      <c r="C247" s="25">
         <v>2</v>
       </c>
-      <c r="D247" s="39" t="s">
+      <c r="D247" s="26" t="s">
         <v>293</v>
       </c>
-      <c r="E247" s="25"/>
-      <c r="F247" s="40"/>
+      <c r="E247" s="27"/>
+      <c r="F247" s="28"/>
     </row>
     <row r="248" ht="60" spans="2:6">
-      <c r="B248" s="37"/>
-      <c r="C248" s="38"/>
-      <c r="D248" s="24" t="s">
+      <c r="B248" s="24"/>
+      <c r="C248" s="25"/>
+      <c r="D248" s="32" t="s">
         <v>294</v>
       </c>
-      <c r="E248" s="25"/>
-      <c r="F248" s="40"/>
+      <c r="E248" s="27"/>
+      <c r="F248" s="28"/>
     </row>
     <row r="249" spans="2:6">
-      <c r="B249" s="37"/>
-      <c r="C249" s="38">
+      <c r="B249" s="24"/>
+      <c r="C249" s="25">
         <v>3</v>
       </c>
-      <c r="D249" s="39" t="s">
+      <c r="D249" s="26" t="s">
         <v>295</v>
       </c>
-      <c r="E249" s="25"/>
-      <c r="F249" s="40"/>
+      <c r="E249" s="27"/>
+      <c r="F249" s="28"/>
     </row>
     <row r="250" ht="60" spans="2:6">
-      <c r="B250" s="37"/>
-      <c r="C250" s="38"/>
-      <c r="D250" s="24" t="s">
+      <c r="B250" s="24"/>
+      <c r="C250" s="25"/>
+      <c r="D250" s="32" t="s">
         <v>296</v>
       </c>
-      <c r="E250" s="25"/>
-      <c r="F250" s="40"/>
+      <c r="E250" s="27"/>
+      <c r="F250" s="28"/>
     </row>
     <row r="251" spans="2:6">
-      <c r="B251" s="37" t="s">
+      <c r="B251" s="24" t="s">
         <v>297</v>
       </c>
-      <c r="C251" s="38">
+      <c r="C251" s="25">
         <v>1</v>
       </c>
-      <c r="D251" s="39" t="str">
+      <c r="D251" s="26" t="str">
         <f>D245</f>
         <v>初期状態</v>
       </c>
-      <c r="E251" s="25">
+      <c r="E251" s="27">
         <v>1</v>
       </c>
-      <c r="F251" s="40"/>
+      <c r="F251" s="28"/>
     </row>
     <row r="252" ht="45" spans="2:6">
-      <c r="B252" s="37"/>
-      <c r="C252" s="38"/>
-      <c r="D252" s="24" t="s">
+      <c r="B252" s="24"/>
+      <c r="C252" s="25"/>
+      <c r="D252" s="32" t="s">
         <v>298</v>
       </c>
-      <c r="E252" s="25"/>
-      <c r="F252" s="40"/>
+      <c r="E252" s="27"/>
+      <c r="F252" s="28"/>
     </row>
     <row r="253" spans="2:6">
-      <c r="B253" s="37"/>
-      <c r="C253" s="38">
+      <c r="B253" s="24"/>
+      <c r="C253" s="25">
         <v>2</v>
       </c>
-      <c r="D253" s="39" t="str">
+      <c r="D253" s="26" t="str">
         <f>D247</f>
         <v>管理状態</v>
       </c>
-      <c r="E253" s="25"/>
-      <c r="F253" s="40"/>
+      <c r="E253" s="27"/>
+      <c r="F253" s="28"/>
     </row>
     <row r="254" ht="75" spans="2:6">
-      <c r="B254" s="37"/>
-      <c r="C254" s="38"/>
-      <c r="D254" s="24" t="s">
+      <c r="B254" s="24"/>
+      <c r="C254" s="25"/>
+      <c r="D254" s="32" t="s">
         <v>299</v>
       </c>
-      <c r="E254" s="25"/>
-      <c r="F254" s="40"/>
+      <c r="E254" s="27"/>
+      <c r="F254" s="28"/>
     </row>
     <row r="255" spans="2:6">
-      <c r="B255" s="37"/>
-      <c r="C255" s="38">
+      <c r="B255" s="24"/>
+      <c r="C255" s="25">
         <v>3</v>
       </c>
-      <c r="D255" s="39" t="str">
+      <c r="D255" s="26" t="str">
         <f>D249</f>
         <v>最適化状態</v>
       </c>
-      <c r="E255" s="25"/>
-      <c r="F255" s="40"/>
+      <c r="E255" s="27"/>
+      <c r="F255" s="28"/>
     </row>
     <row r="256" ht="75" spans="2:6">
-      <c r="B256" s="37"/>
-      <c r="C256" s="38"/>
-      <c r="D256" s="24" t="s">
+      <c r="B256" s="24"/>
+      <c r="C256" s="25"/>
+      <c r="D256" s="32" t="s">
         <v>300</v>
       </c>
-      <c r="E256" s="25"/>
-      <c r="F256" s="40"/>
+      <c r="E256" s="27"/>
+      <c r="F256" s="28"/>
     </row>
     <row r="257" spans="2:6">
-      <c r="B257" s="34" t="s">
+      <c r="B257" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="C257" s="34" t="s">
+      <c r="C257" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="D257" s="42" t="s">
+      <c r="D257" s="30" t="s">
         <v>301</v>
       </c>
-      <c r="E257" s="35" t="s">
+      <c r="E257" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="F257" s="36" t="s">
+      <c r="F257" s="23" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="258" spans="2:6">
-      <c r="B258" s="37" t="s">
+      <c r="B258" s="24" t="s">
         <v>302</v>
       </c>
-      <c r="C258" s="38">
+      <c r="C258" s="25">
         <v>1</v>
       </c>
-      <c r="D258" s="39" t="s">
+      <c r="D258" s="26" t="s">
         <v>291</v>
       </c>
-      <c r="E258" s="25">
+      <c r="E258" s="27">
         <v>0</v>
       </c>
-      <c r="F258" s="40"/>
+      <c r="F258" s="28"/>
     </row>
     <row r="259" ht="45" spans="2:6">
-      <c r="B259" s="37"/>
-      <c r="C259" s="38"/>
-      <c r="D259" s="24" t="s">
+      <c r="B259" s="24"/>
+      <c r="C259" s="25"/>
+      <c r="D259" s="32" t="s">
         <v>303</v>
       </c>
-      <c r="E259" s="25"/>
-      <c r="F259" s="40"/>
+      <c r="E259" s="27"/>
+      <c r="F259" s="28"/>
     </row>
     <row r="260" spans="2:6">
-      <c r="B260" s="37"/>
-      <c r="C260" s="38">
+      <c r="B260" s="24"/>
+      <c r="C260" s="25">
         <v>2</v>
       </c>
-      <c r="D260" s="39" t="s">
+      <c r="D260" s="26" t="s">
         <v>293</v>
       </c>
-      <c r="E260" s="25"/>
-      <c r="F260" s="40"/>
+      <c r="E260" s="27"/>
+      <c r="F260" s="28"/>
     </row>
     <row r="261" ht="45" spans="2:6">
-      <c r="B261" s="37"/>
-      <c r="C261" s="38"/>
-      <c r="D261" s="24" t="s">
+      <c r="B261" s="24"/>
+      <c r="C261" s="25"/>
+      <c r="D261" s="32" t="s">
         <v>304</v>
       </c>
-      <c r="E261" s="25"/>
-      <c r="F261" s="40"/>
+      <c r="E261" s="27"/>
+      <c r="F261" s="28"/>
     </row>
     <row r="262" spans="2:6">
-      <c r="B262" s="37"/>
-      <c r="C262" s="38">
+      <c r="B262" s="24"/>
+      <c r="C262" s="25">
         <v>3</v>
       </c>
-      <c r="D262" s="39" t="s">
+      <c r="D262" s="26" t="s">
         <v>295</v>
       </c>
-      <c r="E262" s="25"/>
-      <c r="F262" s="40"/>
+      <c r="E262" s="27"/>
+      <c r="F262" s="28"/>
     </row>
     <row r="263" ht="60" spans="2:6">
-      <c r="B263" s="37"/>
-      <c r="C263" s="38"/>
-      <c r="D263" s="24" t="s">
+      <c r="B263" s="24"/>
+      <c r="C263" s="25"/>
+      <c r="D263" s="32" t="s">
         <v>305</v>
       </c>
-      <c r="E263" s="25"/>
-      <c r="F263" s="40"/>
+      <c r="E263" s="27"/>
+      <c r="F263" s="28"/>
     </row>
     <row r="264" spans="2:6">
-      <c r="B264" s="37" t="s">
+      <c r="B264" s="24" t="s">
         <v>306</v>
       </c>
-      <c r="C264" s="38">
+      <c r="C264" s="25">
         <v>1</v>
       </c>
-      <c r="D264" s="39" t="str">
+      <c r="D264" s="26" t="str">
         <f>D258</f>
         <v>初期状態</v>
       </c>
-      <c r="E264" s="25">
+      <c r="E264" s="27">
         <v>0</v>
       </c>
-      <c r="F264" s="40"/>
+      <c r="F264" s="28"/>
     </row>
     <row r="265" ht="45" spans="2:6">
-      <c r="B265" s="37"/>
-      <c r="C265" s="38"/>
-      <c r="D265" s="24" t="s">
+      <c r="B265" s="24"/>
+      <c r="C265" s="25"/>
+      <c r="D265" s="32" t="s">
         <v>307</v>
       </c>
-      <c r="E265" s="25"/>
-      <c r="F265" s="40"/>
+      <c r="E265" s="27"/>
+      <c r="F265" s="28"/>
     </row>
     <row r="266" spans="2:6">
-      <c r="B266" s="37"/>
-      <c r="C266" s="38">
+      <c r="B266" s="24"/>
+      <c r="C266" s="25">
         <v>2</v>
       </c>
-      <c r="D266" s="39" t="str">
+      <c r="D266" s="26" t="str">
         <f>D260</f>
         <v>管理状態</v>
       </c>
-      <c r="E266" s="25"/>
-      <c r="F266" s="40"/>
+      <c r="E266" s="27"/>
+      <c r="F266" s="28"/>
     </row>
     <row r="267" ht="45" spans="2:6">
-      <c r="B267" s="37"/>
-      <c r="C267" s="38"/>
-      <c r="D267" s="24" t="s">
+      <c r="B267" s="24"/>
+      <c r="C267" s="25"/>
+      <c r="D267" s="32" t="s">
         <v>308</v>
       </c>
-      <c r="E267" s="25"/>
-      <c r="F267" s="40"/>
+      <c r="E267" s="27"/>
+      <c r="F267" s="28"/>
     </row>
     <row r="268" spans="2:6">
-      <c r="B268" s="37"/>
-      <c r="C268" s="38">
+      <c r="B268" s="24"/>
+      <c r="C268" s="25">
         <v>3</v>
       </c>
-      <c r="D268" s="39" t="str">
+      <c r="D268" s="26" t="str">
         <f>D262</f>
         <v>最適化状態</v>
       </c>
-      <c r="E268" s="25"/>
-      <c r="F268" s="40"/>
+      <c r="E268" s="27"/>
+      <c r="F268" s="28"/>
     </row>
     <row r="269" ht="75" spans="2:6">
-      <c r="B269" s="37"/>
-      <c r="C269" s="38"/>
-      <c r="D269" s="24" t="s">
+      <c r="B269" s="24"/>
+      <c r="C269" s="25"/>
+      <c r="D269" s="32" t="s">
         <v>309</v>
       </c>
-      <c r="E269" s="25"/>
-      <c r="F269" s="40"/>
+      <c r="E269" s="27"/>
+      <c r="F269" s="28"/>
     </row>
     <row r="270" spans="2:6">
-      <c r="B270" s="34" t="s">
+      <c r="B270" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="C270" s="34" t="s">
+      <c r="C270" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="D270" s="42" t="s">
+      <c r="D270" s="30" t="s">
         <v>310</v>
       </c>
-      <c r="E270" s="35" t="s">
+      <c r="E270" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="F270" s="36" t="s">
+      <c r="F270" s="23" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="271" spans="2:6">
-      <c r="B271" s="37" t="s">
+      <c r="B271" s="24" t="s">
         <v>311</v>
       </c>
-      <c r="C271" s="38">
+      <c r="C271" s="25">
         <v>1</v>
       </c>
-      <c r="D271" s="39" t="s">
+      <c r="D271" s="26" t="s">
         <v>291</v>
       </c>
-      <c r="E271" s="25">
+      <c r="E271" s="27">
         <v>1</v>
       </c>
-      <c r="F271" s="40"/>
+      <c r="F271" s="28"/>
     </row>
     <row r="272" ht="45" spans="2:6">
-      <c r="B272" s="37"/>
-      <c r="C272" s="38"/>
-      <c r="D272" s="24" t="s">
+      <c r="B272" s="24"/>
+      <c r="C272" s="25"/>
+      <c r="D272" s="32" t="s">
         <v>312</v>
       </c>
-      <c r="E272" s="25"/>
-      <c r="F272" s="40"/>
+      <c r="E272" s="27"/>
+      <c r="F272" s="28"/>
     </row>
     <row r="273" spans="2:6">
-      <c r="B273" s="37"/>
-      <c r="C273" s="38">
+      <c r="B273" s="24"/>
+      <c r="C273" s="25">
         <v>2</v>
       </c>
-      <c r="D273" s="39" t="s">
+      <c r="D273" s="26" t="s">
         <v>293</v>
       </c>
-      <c r="E273" s="25"/>
-      <c r="F273" s="40"/>
+      <c r="E273" s="27"/>
+      <c r="F273" s="28"/>
     </row>
     <row r="274" ht="60" spans="2:6">
-      <c r="B274" s="37"/>
-      <c r="C274" s="38"/>
-      <c r="D274" s="24" t="s">
+      <c r="B274" s="24"/>
+      <c r="C274" s="25"/>
+      <c r="D274" s="32" t="s">
         <v>313</v>
       </c>
-      <c r="E274" s="25"/>
-      <c r="F274" s="40"/>
+      <c r="E274" s="27"/>
+      <c r="F274" s="28"/>
     </row>
     <row r="275" spans="2:6">
-      <c r="B275" s="37"/>
-      <c r="C275" s="38">
+      <c r="B275" s="24"/>
+      <c r="C275" s="25">
         <v>3</v>
       </c>
-      <c r="D275" s="39" t="s">
+      <c r="D275" s="26" t="s">
         <v>295</v>
       </c>
-      <c r="E275" s="25"/>
-      <c r="F275" s="40"/>
+      <c r="E275" s="27"/>
+      <c r="F275" s="28"/>
     </row>
     <row r="276" ht="75" spans="2:6">
-      <c r="B276" s="37"/>
-      <c r="C276" s="38"/>
-      <c r="D276" s="24" t="s">
+      <c r="B276" s="24"/>
+      <c r="C276" s="25"/>
+      <c r="D276" s="32" t="s">
         <v>314</v>
       </c>
-      <c r="E276" s="25"/>
-      <c r="F276" s="40"/>
+      <c r="E276" s="27"/>
+      <c r="F276" s="28"/>
     </row>
     <row r="277" spans="2:6">
-      <c r="B277" s="37" t="s">
+      <c r="B277" s="24" t="s">
         <v>315</v>
       </c>
-      <c r="C277" s="38">
+      <c r="C277" s="25">
         <v>1</v>
       </c>
-      <c r="D277" s="39" t="str">
+      <c r="D277" s="26" t="str">
         <f>D271</f>
         <v>初期状態</v>
       </c>
-      <c r="E277" s="25">
+      <c r="E277" s="27">
         <v>1</v>
       </c>
-      <c r="F277" s="40"/>
+      <c r="F277" s="28"/>
     </row>
     <row r="278" ht="45" spans="2:6">
-      <c r="B278" s="37"/>
-      <c r="C278" s="38"/>
-      <c r="D278" s="24" t="s">
+      <c r="B278" s="24"/>
+      <c r="C278" s="25"/>
+      <c r="D278" s="32" t="s">
         <v>316</v>
       </c>
-      <c r="E278" s="25"/>
-      <c r="F278" s="40"/>
+      <c r="E278" s="27"/>
+      <c r="F278" s="28"/>
     </row>
     <row r="279" spans="2:6">
-      <c r="B279" s="37"/>
-      <c r="C279" s="38">
+      <c r="B279" s="24"/>
+      <c r="C279" s="25">
         <v>2</v>
       </c>
-      <c r="D279" s="39" t="str">
+      <c r="D279" s="26" t="str">
         <f>D273</f>
         <v>管理状態</v>
       </c>
-      <c r="E279" s="25"/>
-      <c r="F279" s="40"/>
+      <c r="E279" s="27"/>
+      <c r="F279" s="28"/>
     </row>
     <row r="280" ht="60" spans="2:6">
-      <c r="B280" s="37"/>
-      <c r="C280" s="38"/>
-      <c r="D280" s="24" t="s">
+      <c r="B280" s="24"/>
+      <c r="C280" s="25"/>
+      <c r="D280" s="32" t="s">
         <v>317</v>
       </c>
-      <c r="E280" s="25"/>
-      <c r="F280" s="40"/>
+      <c r="E280" s="27"/>
+      <c r="F280" s="28"/>
     </row>
     <row r="281" spans="2:6">
-      <c r="B281" s="37"/>
-      <c r="C281" s="38">
+      <c r="B281" s="24"/>
+      <c r="C281" s="25">
         <v>3</v>
       </c>
-      <c r="D281" s="39" t="str">
+      <c r="D281" s="26" t="str">
         <f>D275</f>
         <v>最適化状態</v>
       </c>
-      <c r="E281" s="25"/>
-      <c r="F281" s="40"/>
+      <c r="E281" s="27"/>
+      <c r="F281" s="28"/>
     </row>
     <row r="282" ht="60" spans="2:6">
-      <c r="B282" s="37"/>
-      <c r="C282" s="38"/>
-      <c r="D282" s="24" t="s">
+      <c r="B282" s="24"/>
+      <c r="C282" s="25"/>
+      <c r="D282" s="32" t="s">
         <v>318</v>
       </c>
-      <c r="E282" s="25"/>
-      <c r="F282" s="40"/>
+      <c r="E282" s="27"/>
+      <c r="F282" s="28"/>
     </row>
     <row r="283" spans="2:6">
-      <c r="B283" s="41" t="s">
+      <c r="B283" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="C283" s="41"/>
-      <c r="D283" s="41"/>
-      <c r="E283" s="41"/>
-      <c r="F283" s="41"/>
+      <c r="C283" s="29"/>
+      <c r="D283" s="29"/>
+      <c r="E283" s="29"/>
+      <c r="F283" s="29"/>
     </row>
     <row r="284" spans="2:6">
-      <c r="B284" s="34" t="s">
+      <c r="B284" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="C284" s="34" t="s">
+      <c r="C284" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="D284" s="42" t="s">
+      <c r="D284" s="30" t="s">
         <v>319</v>
       </c>
-      <c r="E284" s="35" t="s">
+      <c r="E284" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="F284" s="36" t="s">
+      <c r="F284" s="23" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="285" spans="2:6">
-      <c r="B285" s="37" t="s">
+      <c r="B285" s="24" t="s">
         <v>262</v>
       </c>
-      <c r="C285" s="38">
+      <c r="C285" s="25">
         <v>1</v>
       </c>
-      <c r="D285" s="39"/>
-      <c r="E285" s="25">
+      <c r="D285" s="26"/>
+      <c r="E285" s="27">
         <v>0</v>
       </c>
-      <c r="F285" s="40"/>
+      <c r="F285" s="28"/>
     </row>
     <row r="286" spans="2:6">
-      <c r="B286" s="37"/>
-      <c r="C286" s="38"/>
-      <c r="D286" s="39"/>
-      <c r="E286" s="25"/>
-      <c r="F286" s="40"/>
+      <c r="B286" s="24"/>
+      <c r="C286" s="25"/>
+      <c r="D286" s="26"/>
+      <c r="E286" s="27"/>
+      <c r="F286" s="28"/>
     </row>
     <row r="287" spans="2:6">
-      <c r="B287" s="37"/>
-      <c r="C287" s="38">
+      <c r="B287" s="24"/>
+      <c r="C287" s="25">
         <v>2</v>
       </c>
-      <c r="D287" s="39"/>
-      <c r="E287" s="25"/>
-      <c r="F287" s="40"/>
+      <c r="D287" s="26"/>
+      <c r="E287" s="27"/>
+      <c r="F287" s="28"/>
     </row>
     <row r="288" spans="2:6">
-      <c r="B288" s="37"/>
-      <c r="C288" s="38"/>
-      <c r="D288" s="39"/>
-      <c r="E288" s="25"/>
-      <c r="F288" s="40"/>
+      <c r="B288" s="24"/>
+      <c r="C288" s="25"/>
+      <c r="D288" s="26"/>
+      <c r="E288" s="27"/>
+      <c r="F288" s="28"/>
     </row>
     <row r="289" spans="2:6">
-      <c r="B289" s="37"/>
-      <c r="C289" s="38">
+      <c r="B289" s="24"/>
+      <c r="C289" s="25">
         <v>3</v>
       </c>
-      <c r="D289" s="39"/>
-      <c r="E289" s="25"/>
-      <c r="F289" s="40"/>
+      <c r="D289" s="26"/>
+      <c r="E289" s="27"/>
+      <c r="F289" s="28"/>
     </row>
     <row r="290" spans="2:6">
-      <c r="B290" s="37"/>
-      <c r="C290" s="38"/>
-      <c r="D290" s="39"/>
-      <c r="E290" s="25"/>
-      <c r="F290" s="40"/>
+      <c r="B290" s="24"/>
+      <c r="C290" s="25"/>
+      <c r="D290" s="26"/>
+      <c r="E290" s="27"/>
+      <c r="F290" s="28"/>
     </row>
     <row r="291" spans="2:6">
-      <c r="B291" s="37" t="s">
+      <c r="B291" s="24" t="s">
         <v>262</v>
       </c>
-      <c r="C291" s="38">
+      <c r="C291" s="25">
         <v>1</v>
       </c>
-      <c r="D291" s="39"/>
-      <c r="E291" s="25">
+      <c r="D291" s="26"/>
+      <c r="E291" s="27">
         <v>0</v>
       </c>
-      <c r="F291" s="40"/>
+      <c r="F291" s="28"/>
     </row>
     <row r="292" spans="2:6">
-      <c r="B292" s="37"/>
-      <c r="C292" s="38"/>
-      <c r="D292" s="39"/>
-      <c r="E292" s="25"/>
-      <c r="F292" s="40"/>
+      <c r="B292" s="24"/>
+      <c r="C292" s="25"/>
+      <c r="D292" s="26"/>
+      <c r="E292" s="27"/>
+      <c r="F292" s="28"/>
     </row>
     <row r="293" spans="2:6">
-      <c r="B293" s="37"/>
-      <c r="C293" s="38">
+      <c r="B293" s="24"/>
+      <c r="C293" s="25">
         <v>2</v>
       </c>
-      <c r="D293" s="39"/>
-      <c r="E293" s="25"/>
-      <c r="F293" s="40"/>
+      <c r="D293" s="26"/>
+      <c r="E293" s="27"/>
+      <c r="F293" s="28"/>
     </row>
     <row r="294" spans="2:6">
-      <c r="B294" s="37"/>
-      <c r="C294" s="38"/>
-      <c r="D294" s="39"/>
-      <c r="E294" s="25"/>
-      <c r="F294" s="40"/>
+      <c r="B294" s="24"/>
+      <c r="C294" s="25"/>
+      <c r="D294" s="26"/>
+      <c r="E294" s="27"/>
+      <c r="F294" s="28"/>
     </row>
     <row r="295" spans="2:6">
-      <c r="B295" s="37"/>
-      <c r="C295" s="38">
+      <c r="B295" s="24"/>
+      <c r="C295" s="25">
         <v>3</v>
       </c>
-      <c r="D295" s="39"/>
-      <c r="E295" s="25"/>
-      <c r="F295" s="40"/>
+      <c r="D295" s="26"/>
+      <c r="E295" s="27"/>
+      <c r="F295" s="28"/>
     </row>
     <row r="296" spans="2:6">
-      <c r="B296" s="37"/>
-      <c r="C296" s="38"/>
-      <c r="D296" s="39"/>
-      <c r="E296" s="25"/>
-      <c r="F296" s="40"/>
+      <c r="B296" s="24"/>
+      <c r="C296" s="25"/>
+      <c r="D296" s="26"/>
+      <c r="E296" s="27"/>
+      <c r="F296" s="28"/>
     </row>
     <row r="297" spans="2:6">
-      <c r="B297" s="34" t="s">
+      <c r="B297" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="C297" s="34" t="s">
+      <c r="C297" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="D297" s="42" t="s">
+      <c r="D297" s="30" t="s">
         <v>320</v>
       </c>
-      <c r="E297" s="35" t="s">
+      <c r="E297" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="F297" s="36" t="s">
+      <c r="F297" s="23" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="298" spans="2:6">
-      <c r="B298" s="37" t="s">
+      <c r="B298" s="24" t="s">
         <v>321</v>
       </c>
-      <c r="C298" s="38">
+      <c r="C298" s="25">
         <v>1</v>
       </c>
-      <c r="D298" s="39" t="s">
+      <c r="D298" s="26" t="s">
         <v>322</v>
       </c>
-      <c r="E298" s="25">
+      <c r="E298" s="27">
         <v>1</v>
       </c>
-      <c r="F298" s="40"/>
+      <c r="F298" s="28"/>
     </row>
     <row r="299" ht="30" spans="2:6">
-      <c r="B299" s="37"/>
-      <c r="C299" s="38"/>
-      <c r="D299" s="24" t="s">
+      <c r="B299" s="24"/>
+      <c r="C299" s="25"/>
+      <c r="D299" s="32" t="s">
         <v>323</v>
       </c>
-      <c r="E299" s="25"/>
-      <c r="F299" s="40"/>
+      <c r="E299" s="27"/>
+      <c r="F299" s="28"/>
     </row>
     <row r="300" spans="2:6">
-      <c r="B300" s="37"/>
-      <c r="C300" s="38">
+      <c r="B300" s="24"/>
+      <c r="C300" s="25">
         <v>2</v>
       </c>
-      <c r="D300" s="39" t="s">
+      <c r="D300" s="26" t="s">
         <v>324</v>
       </c>
-      <c r="E300" s="25"/>
-      <c r="F300" s="40"/>
+      <c r="E300" s="27"/>
+      <c r="F300" s="28"/>
     </row>
     <row r="301" ht="30" spans="2:6">
-      <c r="B301" s="37"/>
-      <c r="C301" s="38"/>
-      <c r="D301" s="24" t="s">
+      <c r="B301" s="24"/>
+      <c r="C301" s="25"/>
+      <c r="D301" s="32" t="s">
         <v>325</v>
       </c>
-      <c r="E301" s="25"/>
-      <c r="F301" s="40"/>
+      <c r="E301" s="27"/>
+      <c r="F301" s="28"/>
     </row>
     <row r="302" spans="2:6">
-      <c r="B302" s="37"/>
-      <c r="C302" s="38">
+      <c r="B302" s="24"/>
+      <c r="C302" s="25">
         <v>3</v>
       </c>
-      <c r="D302" s="39" t="s">
+      <c r="D302" s="26" t="s">
         <v>326</v>
       </c>
-      <c r="E302" s="25"/>
-      <c r="F302" s="40"/>
+      <c r="E302" s="27"/>
+      <c r="F302" s="28"/>
     </row>
     <row r="303" ht="45" spans="2:6">
-      <c r="B303" s="37"/>
-      <c r="C303" s="38"/>
-      <c r="D303" s="24" t="s">
+      <c r="B303" s="24"/>
+      <c r="C303" s="25"/>
+      <c r="D303" s="32" t="s">
         <v>327</v>
       </c>
-      <c r="E303" s="25"/>
-      <c r="F303" s="40"/>
+      <c r="E303" s="27"/>
+      <c r="F303" s="28"/>
     </row>
     <row r="304" spans="2:6">
-      <c r="B304" s="37" t="s">
+      <c r="B304" s="24" t="s">
         <v>328</v>
       </c>
-      <c r="C304" s="38">
+      <c r="C304" s="25">
         <v>1</v>
       </c>
-      <c r="D304" s="39" t="str">
+      <c r="D304" s="26" t="str">
         <f>D298</f>
         <v>基本状態</v>
       </c>
-      <c r="E304" s="25">
+      <c r="E304" s="27">
         <v>1</v>
       </c>
-      <c r="F304" s="40"/>
+      <c r="F304" s="28"/>
     </row>
     <row r="305" ht="45" spans="2:6">
-      <c r="B305" s="37"/>
-      <c r="C305" s="38"/>
-      <c r="D305" s="24" t="s">
+      <c r="B305" s="24"/>
+      <c r="C305" s="25"/>
+      <c r="D305" s="32" t="s">
         <v>329</v>
       </c>
-      <c r="E305" s="25"/>
-      <c r="F305" s="40"/>
+      <c r="E305" s="27"/>
+      <c r="F305" s="28"/>
     </row>
     <row r="306" spans="2:6">
-      <c r="B306" s="37"/>
-      <c r="C306" s="38">
+      <c r="B306" s="24"/>
+      <c r="C306" s="25">
         <v>2</v>
       </c>
-      <c r="D306" s="39" t="str">
+      <c r="D306" s="26" t="str">
         <f>D300</f>
         <v>発展途上状態</v>
       </c>
-      <c r="E306" s="25"/>
-      <c r="F306" s="40"/>
+      <c r="E306" s="27"/>
+      <c r="F306" s="28"/>
     </row>
     <row r="307" ht="45" spans="2:6">
-      <c r="B307" s="37"/>
-      <c r="C307" s="38"/>
-      <c r="D307" s="24" t="s">
+      <c r="B307" s="24"/>
+      <c r="C307" s="25"/>
+      <c r="D307" s="32" t="s">
         <v>330</v>
       </c>
-      <c r="E307" s="25"/>
-      <c r="F307" s="40"/>
+      <c r="E307" s="27"/>
+      <c r="F307" s="28"/>
     </row>
     <row r="308" spans="2:6">
-      <c r="B308" s="37"/>
-      <c r="C308" s="38">
+      <c r="B308" s="24"/>
+      <c r="C308" s="25">
         <v>3</v>
       </c>
-      <c r="D308" s="39" t="str">
+      <c r="D308" s="26" t="str">
         <f>D302</f>
         <v>成熟状態</v>
       </c>
-      <c r="E308" s="25"/>
-      <c r="F308" s="40"/>
+      <c r="E308" s="27"/>
+      <c r="F308" s="28"/>
     </row>
     <row r="309" ht="45" spans="2:6">
-      <c r="B309" s="37"/>
-      <c r="C309" s="38"/>
-      <c r="D309" s="24" t="s">
+      <c r="B309" s="24"/>
+      <c r="C309" s="25"/>
+      <c r="D309" s="32" t="s">
         <v>331</v>
       </c>
-      <c r="E309" s="25"/>
-      <c r="F309" s="40"/>
+      <c r="E309" s="27"/>
+      <c r="F309" s="28"/>
     </row>
     <row r="310" spans="2:6">
-      <c r="B310" s="34" t="s">
+      <c r="B310" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="C310" s="34" t="s">
+      <c r="C310" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="D310" s="42" t="s">
+      <c r="D310" s="30" t="s">
         <v>332</v>
       </c>
-      <c r="E310" s="35" t="s">
+      <c r="E310" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="F310" s="36" t="s">
+      <c r="F310" s="23" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="311" spans="2:6">
-      <c r="B311" s="37" t="s">
+      <c r="B311" s="24" t="s">
         <v>262</v>
       </c>
-      <c r="C311" s="38">
+      <c r="C311" s="25">
         <v>1</v>
       </c>
-      <c r="D311" s="39"/>
-      <c r="E311" s="25">
+      <c r="D311" s="26"/>
+      <c r="E311" s="27">
         <v>0</v>
       </c>
-      <c r="F311" s="40"/>
+      <c r="F311" s="28"/>
     </row>
     <row r="312" spans="2:6">
-      <c r="B312" s="37"/>
-      <c r="C312" s="38"/>
-      <c r="D312" s="39"/>
-      <c r="E312" s="25"/>
-      <c r="F312" s="40"/>
+      <c r="B312" s="24"/>
+      <c r="C312" s="25"/>
+      <c r="D312" s="26"/>
+      <c r="E312" s="27"/>
+      <c r="F312" s="28"/>
     </row>
     <row r="313" spans="2:6">
-      <c r="B313" s="37"/>
-      <c r="C313" s="38">
+      <c r="B313" s="24"/>
+      <c r="C313" s="25">
         <v>2</v>
       </c>
-      <c r="D313" s="39"/>
-      <c r="E313" s="25"/>
-      <c r="F313" s="40"/>
+      <c r="D313" s="26"/>
+      <c r="E313" s="27"/>
+      <c r="F313" s="28"/>
     </row>
     <row r="314" spans="2:6">
-      <c r="B314" s="37"/>
-      <c r="C314" s="38"/>
-      <c r="D314" s="39"/>
-      <c r="E314" s="25"/>
-      <c r="F314" s="40"/>
+      <c r="B314" s="24"/>
+      <c r="C314" s="25"/>
+      <c r="D314" s="26"/>
+      <c r="E314" s="27"/>
+      <c r="F314" s="28"/>
     </row>
     <row r="315" spans="2:6">
-      <c r="B315" s="37"/>
-      <c r="C315" s="38">
+      <c r="B315" s="24"/>
+      <c r="C315" s="25">
         <v>3</v>
       </c>
-      <c r="D315" s="39"/>
-      <c r="E315" s="25"/>
-      <c r="F315" s="40"/>
+      <c r="D315" s="26"/>
+      <c r="E315" s="27"/>
+      <c r="F315" s="28"/>
     </row>
     <row r="316" spans="2:6">
-      <c r="B316" s="37"/>
-      <c r="C316" s="38"/>
-      <c r="D316" s="39"/>
-      <c r="E316" s="25"/>
-      <c r="F316" s="40"/>
+      <c r="B316" s="24"/>
+      <c r="C316" s="25"/>
+      <c r="D316" s="26"/>
+      <c r="E316" s="27"/>
+      <c r="F316" s="28"/>
     </row>
     <row r="317" spans="2:6">
-      <c r="B317" s="37" t="s">
+      <c r="B317" s="24" t="s">
         <v>262</v>
       </c>
-      <c r="C317" s="38">
+      <c r="C317" s="25">
         <v>1</v>
       </c>
-      <c r="D317" s="39"/>
-      <c r="E317" s="25">
+      <c r="D317" s="26"/>
+      <c r="E317" s="27">
         <v>0</v>
       </c>
-      <c r="F317" s="40"/>
+      <c r="F317" s="28"/>
     </row>
     <row r="318" spans="2:6">
-      <c r="B318" s="37"/>
-      <c r="C318" s="38"/>
-      <c r="D318" s="39"/>
-      <c r="E318" s="25"/>
-      <c r="F318" s="40"/>
+      <c r="B318" s="24"/>
+      <c r="C318" s="25"/>
+      <c r="D318" s="26"/>
+      <c r="E318" s="27"/>
+      <c r="F318" s="28"/>
     </row>
     <row r="319" spans="2:6">
-      <c r="B319" s="37"/>
-      <c r="C319" s="38">
+      <c r="B319" s="24"/>
+      <c r="C319" s="25">
         <v>2</v>
       </c>
-      <c r="D319" s="39"/>
-      <c r="E319" s="25"/>
-      <c r="F319" s="40"/>
+      <c r="D319" s="26"/>
+      <c r="E319" s="27"/>
+      <c r="F319" s="28"/>
     </row>
     <row r="320" spans="2:6">
-      <c r="B320" s="37"/>
-      <c r="C320" s="38"/>
-      <c r="D320" s="39"/>
-      <c r="E320" s="25"/>
-      <c r="F320" s="40"/>
+      <c r="B320" s="24"/>
+      <c r="C320" s="25"/>
+      <c r="D320" s="26"/>
+      <c r="E320" s="27"/>
+      <c r="F320" s="28"/>
     </row>
     <row r="321" spans="2:6">
-      <c r="B321" s="37"/>
-      <c r="C321" s="38">
+      <c r="B321" s="24"/>
+      <c r="C321" s="25">
         <v>3</v>
       </c>
-      <c r="D321" s="39"/>
-      <c r="E321" s="25"/>
-      <c r="F321" s="40"/>
+      <c r="D321" s="26"/>
+      <c r="E321" s="27"/>
+      <c r="F321" s="28"/>
     </row>
     <row r="322" spans="2:6">
-      <c r="B322" s="37"/>
-      <c r="C322" s="38"/>
-      <c r="D322" s="39"/>
-      <c r="E322" s="25"/>
-      <c r="F322" s="40"/>
+      <c r="B322" s="24"/>
+      <c r="C322" s="25"/>
+      <c r="D322" s="26"/>
+      <c r="E322" s="27"/>
+      <c r="F322" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="296">
@@ -13559,15 +13506,15 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:R83"/>
+  <dimension ref="B2:S83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.88888888888889" style="1"/>
+    <col min="1" max="1" width="3" style="1" customWidth="1"/>
     <col min="2" max="3" width="3.88888888888889" style="1" customWidth="1"/>
     <col min="4" max="4" width="56.4444444444444" style="1" customWidth="1"/>
     <col min="5" max="7" width="7.77777777777778" style="1" customWidth="1"/>
@@ -14323,7 +14270,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" ht="15.75" spans="2:18">
+    <row r="50" ht="15.75" spans="2:19">
       <c r="B50" s="12"/>
       <c r="C50" s="14"/>
       <c r="D50" s="13" t="str">
@@ -14336,23 +14283,15 @@
         <f>Details!E184</f>
         <v>1</v>
       </c>
-      <c r="N50" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="O50" s="18">
-        <v>0</v>
-      </c>
-      <c r="P50" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q50" s="26">
-        <v>2</v>
-      </c>
-      <c r="R50" s="27">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" ht="15.75" spans="2:18">
+      <c r="M50"/>
+      <c r="N50"/>
+      <c r="O50"/>
+      <c r="P50"/>
+      <c r="Q50"/>
+      <c r="R50"/>
+      <c r="S50"/>
+    </row>
+    <row r="51" ht="15.75" spans="2:19">
       <c r="B51" s="12"/>
       <c r="C51" s="10" t="str">
         <f>Details!D190</f>
@@ -14365,23 +14304,15 @@
         <v>1.5</v>
       </c>
       <c r="G51" s="8"/>
-      <c r="N51" s="20" t="s">
-        <v>341</v>
-      </c>
-      <c r="O51" s="21" t="s">
-        <v>342</v>
-      </c>
-      <c r="P51" s="22" t="s">
-        <v>343</v>
-      </c>
-      <c r="Q51" s="22" t="s">
-        <v>344</v>
-      </c>
-      <c r="R51" s="28" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="52" ht="30" spans="2:18">
+      <c r="M51"/>
+      <c r="N51"/>
+      <c r="O51"/>
+      <c r="P51"/>
+      <c r="Q51"/>
+      <c r="R51"/>
+      <c r="S51"/>
+    </row>
+    <row r="52" spans="2:19">
       <c r="B52" s="12"/>
       <c r="C52" s="9"/>
       <c r="D52" s="13" t="str">
@@ -14394,23 +14325,15 @@
         <f>Details!E191</f>
         <v>2</v>
       </c>
-      <c r="N52" s="23" t="s">
-        <v>346</v>
-      </c>
-      <c r="O52" s="24" t="s">
-        <v>347</v>
-      </c>
-      <c r="P52" s="25" t="s">
-        <v>343</v>
-      </c>
-      <c r="Q52" s="25" t="s">
-        <v>344</v>
-      </c>
-      <c r="R52" s="29" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="53" spans="2:18">
+      <c r="M52"/>
+      <c r="N52"/>
+      <c r="O52"/>
+      <c r="P52"/>
+      <c r="Q52"/>
+      <c r="R52"/>
+      <c r="S52"/>
+    </row>
+    <row r="53" spans="2:19">
       <c r="B53" s="14"/>
       <c r="C53" s="14"/>
       <c r="D53" s="13" t="str">
@@ -14423,23 +14346,15 @@
         <f>Details!E197</f>
         <v>1</v>
       </c>
-      <c r="N53" s="23" t="s">
-        <v>349</v>
-      </c>
-      <c r="O53" s="13" t="s">
-        <v>350</v>
-      </c>
-      <c r="P53" s="25" t="s">
-        <v>343</v>
-      </c>
-      <c r="Q53" s="25" t="s">
-        <v>344</v>
-      </c>
-      <c r="R53" s="29" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="54" spans="2:7">
+      <c r="M53"/>
+      <c r="N53"/>
+      <c r="O53"/>
+      <c r="P53"/>
+      <c r="Q53"/>
+      <c r="R53"/>
+      <c r="S53"/>
+    </row>
+    <row r="54" spans="2:19">
       <c r="B54" s="5" t="str">
         <f>Details!B203</f>
         <v>実装</v>
@@ -14452,6 +14367,13 @@
       </c>
       <c r="F54" s="7"/>
       <c r="G54" s="8"/>
+      <c r="M54"/>
+      <c r="N54"/>
+      <c r="O54"/>
+      <c r="P54"/>
+      <c r="Q54"/>
+      <c r="R54"/>
+      <c r="S54"/>
     </row>
     <row r="55" spans="2:7">
       <c r="B55" s="9"/>
